--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #10  OCTUBRE 2022/CREDITOS  ABASTOS  HERRADURA   OCTUBRE  2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #10  OCTUBRE 2022/CREDITOS  ABASTOS  HERRADURA   OCTUBRE  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6840" yWindow="240" windowWidth="13485" windowHeight="10110" firstSheet="8" activeTab="8"/>
+    <workbookView xWindow="6840" yWindow="240" windowWidth="13485" windowHeight="10110" firstSheet="8" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="REMISIONES  ENERO  2022" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="  REMISIONES   JULIO    2022   " sheetId="7" r:id="rId7"/>
     <sheet name="REMISIONES    AGOSTO    2022" sheetId="8" r:id="rId8"/>
     <sheet name="REMISIONES  SEPTIEMBRE 2022    " sheetId="9" r:id="rId9"/>
-    <sheet name="Hoja1" sheetId="11" r:id="rId10"/>
+    <sheet name="REMISIONES  OCTUBRE   2022    " sheetId="11" r:id="rId10"/>
     <sheet name="Hoja3" sheetId="12" r:id="rId11"/>
     <sheet name="Hoja2" sheetId="10" r:id="rId12"/>
   </sheets>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="99">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    H E R R A D U R A </t>
   </si>
@@ -361,6 +361,33 @@
   </si>
   <si>
     <t>30-Sept-22--2-Oct-22</t>
+  </si>
+  <si>
+    <t>REMISIONES    POR     CREDITOS         DE   OCTUBRE    2 0 2 2</t>
+  </si>
+  <si>
+    <t>2-Oct-22--4-Oct-22</t>
+  </si>
+  <si>
+    <t>1-Oct-22--4-Oct-22--5-Oct-22</t>
+  </si>
+  <si>
+    <t>4-Oct-22--6-Oct-22</t>
+  </si>
+  <si>
+    <t>5-Oct-22--6-Oct-22--7-Oct-22</t>
+  </si>
+  <si>
+    <t>5-Oct-22---6-Oct-22--7-Oct-22--8-Oct-22</t>
+  </si>
+  <si>
+    <t>7-Oct-22--8-Oct-22</t>
+  </si>
+  <si>
+    <t>8-Oct-22--9-Oct-22</t>
+  </si>
+  <si>
+    <t>9-Oct-22---11-Oct-22</t>
   </si>
 </sst>
 </file>
@@ -749,7 +776,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -915,7 +942,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -949,9 +986,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FF00FF99"/>
       <color rgb="FF66FFFF"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFFF66CC"/>
     </mruColors>
   </colors>
@@ -1048,6 +1085,117 @@
       <xdr:spPr>
         <a:xfrm rot="5400000">
           <a:off x="5472114" y="8624892"/>
+          <a:ext cx="638173" cy="495298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647703</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>152402</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="1 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EA8ED25-5E55-4F35-9A11-570092F029FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4576765" y="35132965"/>
+          <a:ext cx="581022" cy="590546"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561977</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>123829</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>161927</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="2 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2272C1A0-23C1-416E-8467-7A61862AE18E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5472114" y="35180592"/>
           <a:ext cx="638173" cy="495298"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2253,25 +2401,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="76"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="82"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
+      <c r="B2" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -3019,12 +3167,12 @@
       <c r="B45" s="43"/>
       <c r="C45" s="44"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="78">
+      <c r="E45" s="84">
         <f>E41-G41</f>
         <v>0</v>
       </c>
-      <c r="F45" s="79"/>
-      <c r="G45" s="80"/>
+      <c r="F45" s="85"/>
+      <c r="G45" s="86"/>
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -3040,11 +3188,11 @@
       <c r="B47" s="43"/>
       <c r="C47" s="44"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="81" t="s">
+      <c r="E47" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="F47" s="81"/>
-      <c r="G47" s="81"/>
+      <c r="F47" s="87"/>
+      <c r="G47" s="87"/>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -3161,13 +3309,2709 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:I156"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="A33" sqref="A33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="13.140625" style="56" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="57" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="58" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="59" customWidth="1"/>
+    <col min="7" max="7" width="18" style="60" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="73" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="82"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="3"/>
+      <c r="B2" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="46.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="48" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
+        <v>44838</v>
+      </c>
+      <c r="B4" s="15">
+        <v>616</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="18">
+        <v>3040</v>
+      </c>
+      <c r="F4" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" s="20">
+        <f>1500+840+700</f>
+        <v>3040</v>
+      </c>
+      <c r="H4" s="76">
+        <f t="shared" ref="H4:H138" si="0">E4-G4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
+        <v>44838</v>
+      </c>
+      <c r="B5" s="15">
+        <v>617</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="23">
+        <v>5819</v>
+      </c>
+      <c r="F5" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="25">
+        <f>5319+500</f>
+        <v>5819</v>
+      </c>
+      <c r="H5" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <v>44838</v>
+      </c>
+      <c r="B6" s="15">
+        <f t="shared" ref="B6:B69" si="1">B5+1</f>
+        <v>618</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="23">
+        <v>10492</v>
+      </c>
+      <c r="F6" s="24">
+        <v>44840</v>
+      </c>
+      <c r="G6" s="25">
+        <v>10492</v>
+      </c>
+      <c r="H6" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="26">
+        <v>44838</v>
+      </c>
+      <c r="B7" s="15">
+        <f t="shared" si="1"/>
+        <v>619</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="23">
+        <v>7346</v>
+      </c>
+      <c r="F7" s="24">
+        <v>44840</v>
+      </c>
+      <c r="G7" s="25">
+        <v>7346</v>
+      </c>
+      <c r="H7" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <v>44839</v>
+      </c>
+      <c r="B8" s="15">
+        <f t="shared" si="1"/>
+        <v>620</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="23">
+        <v>1776</v>
+      </c>
+      <c r="F8" s="24">
+        <v>44839</v>
+      </c>
+      <c r="G8" s="25">
+        <v>1776</v>
+      </c>
+      <c r="H8" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>44839</v>
+      </c>
+      <c r="B9" s="15">
+        <f t="shared" si="1"/>
+        <v>621</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="23">
+        <v>12479</v>
+      </c>
+      <c r="F9" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" s="25">
+        <f>2600+4879+5000</f>
+        <v>12479</v>
+      </c>
+      <c r="H9" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <v>44839</v>
+      </c>
+      <c r="B10" s="15">
+        <f t="shared" si="1"/>
+        <v>622</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="23">
+        <v>7024</v>
+      </c>
+      <c r="F10" s="64">
+        <v>44840</v>
+      </c>
+      <c r="G10" s="25">
+        <v>7024</v>
+      </c>
+      <c r="H10" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <v>44840</v>
+      </c>
+      <c r="B11" s="15">
+        <f t="shared" si="1"/>
+        <v>623</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="23">
+        <v>2881</v>
+      </c>
+      <c r="F11" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="25">
+        <f>1881+1000</f>
+        <v>2881</v>
+      </c>
+      <c r="H11" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>44840</v>
+      </c>
+      <c r="B12" s="15">
+        <f t="shared" si="1"/>
+        <v>624</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="23">
+        <v>6880</v>
+      </c>
+      <c r="F12" s="64">
+        <v>44843</v>
+      </c>
+      <c r="G12" s="25">
+        <v>6880</v>
+      </c>
+      <c r="H12" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
+        <v>44840</v>
+      </c>
+      <c r="B13" s="15">
+        <f t="shared" si="1"/>
+        <v>625</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="23">
+        <v>209</v>
+      </c>
+      <c r="F13" s="24">
+        <v>44842</v>
+      </c>
+      <c r="G13" s="25">
+        <v>209</v>
+      </c>
+      <c r="H13" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
+        <v>44840</v>
+      </c>
+      <c r="B14" s="15">
+        <f t="shared" si="1"/>
+        <v>626</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="23">
+        <v>4331</v>
+      </c>
+      <c r="F14" s="24">
+        <v>44841</v>
+      </c>
+      <c r="G14" s="25">
+        <v>4331</v>
+      </c>
+      <c r="H14" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
+        <v>44841</v>
+      </c>
+      <c r="B15" s="15">
+        <f t="shared" si="1"/>
+        <v>627</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="23">
+        <v>4685</v>
+      </c>
+      <c r="F15" s="24">
+        <v>44842</v>
+      </c>
+      <c r="G15" s="25">
+        <v>4685</v>
+      </c>
+      <c r="H15" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
+        <v>44841</v>
+      </c>
+      <c r="B16" s="15">
+        <f t="shared" si="1"/>
+        <v>628</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="23">
+        <v>1478</v>
+      </c>
+      <c r="F16" s="24">
+        <v>44842</v>
+      </c>
+      <c r="G16" s="25">
+        <v>1478</v>
+      </c>
+      <c r="H16" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
+        <v>44841</v>
+      </c>
+      <c r="B17" s="15">
+        <f t="shared" si="1"/>
+        <v>629</v>
+      </c>
+      <c r="C17" s="30"/>
+      <c r="D17" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="23">
+        <v>4766</v>
+      </c>
+      <c r="F17" s="64">
+        <v>44842</v>
+      </c>
+      <c r="G17" s="25">
+        <v>4766</v>
+      </c>
+      <c r="H17" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
+        <v>44841</v>
+      </c>
+      <c r="B18" s="15">
+        <f t="shared" si="1"/>
+        <v>630</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="23">
+        <v>7387</v>
+      </c>
+      <c r="F18" s="24">
+        <v>44842</v>
+      </c>
+      <c r="G18" s="25">
+        <v>7387</v>
+      </c>
+      <c r="H18" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
+        <v>44842</v>
+      </c>
+      <c r="B19" s="15">
+        <f t="shared" si="1"/>
+        <v>631</v>
+      </c>
+      <c r="C19" s="30"/>
+      <c r="D19" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="23">
+        <v>3924</v>
+      </c>
+      <c r="F19" s="64">
+        <v>44845</v>
+      </c>
+      <c r="G19" s="25">
+        <v>3924</v>
+      </c>
+      <c r="H19" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
+        <v>44842</v>
+      </c>
+      <c r="B20" s="15">
+        <f t="shared" si="1"/>
+        <v>632</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="23">
+        <v>4626</v>
+      </c>
+      <c r="F20" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="25">
+        <f>4026+600</f>
+        <v>4626</v>
+      </c>
+      <c r="H20" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
+        <v>44842</v>
+      </c>
+      <c r="B21" s="15">
+        <f t="shared" si="1"/>
+        <v>633</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="23">
+        <v>15416</v>
+      </c>
+      <c r="F21" s="24"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="76">
+        <f t="shared" si="0"/>
+        <v>15416</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
+        <v>44842</v>
+      </c>
+      <c r="B22" s="15">
+        <f t="shared" si="1"/>
+        <v>634</v>
+      </c>
+      <c r="C22" s="29"/>
+      <c r="D22" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="23">
+        <v>8791</v>
+      </c>
+      <c r="F22" s="24">
+        <v>44843</v>
+      </c>
+      <c r="G22" s="25">
+        <v>8791</v>
+      </c>
+      <c r="H22" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14">
+        <v>44842</v>
+      </c>
+      <c r="B23" s="15">
+        <f t="shared" si="1"/>
+        <v>635</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="23">
+        <v>3481</v>
+      </c>
+      <c r="F23" s="24">
+        <v>44843</v>
+      </c>
+      <c r="G23" s="25">
+        <v>3481</v>
+      </c>
+      <c r="H23" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="14">
+        <v>44843</v>
+      </c>
+      <c r="B24" s="15">
+        <f t="shared" si="1"/>
+        <v>636</v>
+      </c>
+      <c r="C24" s="29"/>
+      <c r="D24" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="23">
+        <v>6414</v>
+      </c>
+      <c r="F24" s="64">
+        <v>44845</v>
+      </c>
+      <c r="G24" s="25">
+        <v>6414</v>
+      </c>
+      <c r="H24" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="14">
+        <v>44843</v>
+      </c>
+      <c r="B25" s="15">
+        <f t="shared" si="1"/>
+        <v>637</v>
+      </c>
+      <c r="C25" s="29"/>
+      <c r="D25" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="23">
+        <v>1569</v>
+      </c>
+      <c r="F25" s="24">
+        <v>44845</v>
+      </c>
+      <c r="G25" s="25">
+        <v>1569</v>
+      </c>
+      <c r="H25" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="14">
+        <v>44843</v>
+      </c>
+      <c r="B26" s="15">
+        <f t="shared" si="1"/>
+        <v>638</v>
+      </c>
+      <c r="C26" s="29"/>
+      <c r="D26" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="23">
+        <v>8419</v>
+      </c>
+      <c r="F26" s="64">
+        <v>44845</v>
+      </c>
+      <c r="G26" s="25">
+        <v>8419</v>
+      </c>
+      <c r="H26" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="14">
+        <v>44844</v>
+      </c>
+      <c r="B27" s="15">
+        <f t="shared" si="1"/>
+        <v>639</v>
+      </c>
+      <c r="C27" s="29"/>
+      <c r="D27" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="23">
+        <v>289</v>
+      </c>
+      <c r="F27" s="24"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="76">
+        <f t="shared" si="0"/>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="14">
+        <v>44845</v>
+      </c>
+      <c r="B28" s="15">
+        <f t="shared" si="1"/>
+        <v>640</v>
+      </c>
+      <c r="C28" s="29"/>
+      <c r="D28" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="23">
+        <v>2502</v>
+      </c>
+      <c r="F28" s="24">
+        <v>44845</v>
+      </c>
+      <c r="G28" s="25">
+        <v>2502</v>
+      </c>
+      <c r="H28" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="14">
+        <v>44845</v>
+      </c>
+      <c r="B29" s="15">
+        <f t="shared" si="1"/>
+        <v>641</v>
+      </c>
+      <c r="C29" s="29"/>
+      <c r="D29" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="23">
+        <v>2752</v>
+      </c>
+      <c r="F29" s="24"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="76">
+        <f t="shared" si="0"/>
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="14">
+        <v>44845</v>
+      </c>
+      <c r="B30" s="15">
+        <f t="shared" si="1"/>
+        <v>642</v>
+      </c>
+      <c r="C30" s="29"/>
+      <c r="D30" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="23">
+        <v>7672</v>
+      </c>
+      <c r="F30" s="64"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="76">
+        <f t="shared" si="0"/>
+        <v>7672</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="14">
+        <v>44845</v>
+      </c>
+      <c r="B31" s="15">
+        <f t="shared" si="1"/>
+        <v>643</v>
+      </c>
+      <c r="C31" s="29"/>
+      <c r="D31" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="23">
+        <v>6885</v>
+      </c>
+      <c r="F31" s="24"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="76">
+        <f t="shared" si="0"/>
+        <v>6885</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="14">
+        <v>44845</v>
+      </c>
+      <c r="B32" s="15">
+        <f t="shared" si="1"/>
+        <v>644</v>
+      </c>
+      <c r="C32" s="29"/>
+      <c r="D32" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="23">
+        <v>1911</v>
+      </c>
+      <c r="F32" s="64"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="76">
+        <f t="shared" si="0"/>
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="B33" s="15">
+        <f t="shared" si="1"/>
+        <v>645</v>
+      </c>
+      <c r="C33" s="29"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="B34" s="15">
+        <f t="shared" si="1"/>
+        <v>646</v>
+      </c>
+      <c r="C34" s="29"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
+      <c r="B35" s="15">
+        <f t="shared" si="1"/>
+        <v>647</v>
+      </c>
+      <c r="C35" s="29"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="14"/>
+      <c r="B36" s="15">
+        <f t="shared" si="1"/>
+        <v>648</v>
+      </c>
+      <c r="C36" s="29"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="14"/>
+      <c r="B37" s="15">
+        <f t="shared" si="1"/>
+        <v>649</v>
+      </c>
+      <c r="C37" s="29"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="14"/>
+      <c r="B38" s="15">
+        <f t="shared" si="1"/>
+        <v>650</v>
+      </c>
+      <c r="C38" s="29"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="14"/>
+      <c r="B39" s="15">
+        <f t="shared" si="1"/>
+        <v>651</v>
+      </c>
+      <c r="C39" s="29"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="14"/>
+      <c r="B40" s="15">
+        <f t="shared" si="1"/>
+        <v>652</v>
+      </c>
+      <c r="C40" s="29"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="14"/>
+      <c r="B41" s="15">
+        <f t="shared" si="1"/>
+        <v>653</v>
+      </c>
+      <c r="C41" s="29"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="14"/>
+      <c r="B42" s="15">
+        <f t="shared" si="1"/>
+        <v>654</v>
+      </c>
+      <c r="C42" s="29"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="14"/>
+      <c r="B43" s="15">
+        <f t="shared" si="1"/>
+        <v>655</v>
+      </c>
+      <c r="C43" s="29"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="64"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="14"/>
+      <c r="B44" s="15">
+        <f t="shared" si="1"/>
+        <v>656</v>
+      </c>
+      <c r="C44" s="29"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="64"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
+      <c r="B45" s="15">
+        <f t="shared" si="1"/>
+        <v>657</v>
+      </c>
+      <c r="C45" s="29"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
+      <c r="B46" s="15">
+        <f t="shared" si="1"/>
+        <v>658</v>
+      </c>
+      <c r="C46" s="29"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+      <c r="B47" s="15">
+        <f t="shared" si="1"/>
+        <v>659</v>
+      </c>
+      <c r="C47" s="33"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="15">
+        <f t="shared" si="1"/>
+        <v>660</v>
+      </c>
+      <c r="C48" s="34"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="15">
+        <f t="shared" si="1"/>
+        <v>661</v>
+      </c>
+      <c r="C49" s="29"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="64"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="14"/>
+      <c r="B50" s="15">
+        <f t="shared" si="1"/>
+        <v>662</v>
+      </c>
+      <c r="C50" s="29"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="64"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="14"/>
+      <c r="B51" s="15">
+        <f t="shared" si="1"/>
+        <v>663</v>
+      </c>
+      <c r="C51" s="29"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="14"/>
+      <c r="B52" s="15">
+        <f t="shared" si="1"/>
+        <v>664</v>
+      </c>
+      <c r="C52" s="29"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="14"/>
+      <c r="B53" s="15">
+        <f t="shared" si="1"/>
+        <v>665</v>
+      </c>
+      <c r="C53" s="29"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="64"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="14"/>
+      <c r="B54" s="15">
+        <f t="shared" si="1"/>
+        <v>666</v>
+      </c>
+      <c r="C54" s="29"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="66"/>
+      <c r="B55" s="15">
+        <f t="shared" si="1"/>
+        <v>667</v>
+      </c>
+      <c r="C55" s="29"/>
+      <c r="D55" s="67"/>
+      <c r="E55" s="68"/>
+      <c r="F55" s="64"/>
+      <c r="G55" s="69"/>
+      <c r="H55" s="77">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="14"/>
+      <c r="B56" s="15">
+        <f t="shared" si="1"/>
+        <v>668</v>
+      </c>
+      <c r="C56" s="29"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="64"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="14"/>
+      <c r="B57" s="15">
+        <f t="shared" si="1"/>
+        <v>669</v>
+      </c>
+      <c r="C57" s="29"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="14"/>
+      <c r="B58" s="15">
+        <f t="shared" si="1"/>
+        <v>670</v>
+      </c>
+      <c r="C58" s="29"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="14"/>
+      <c r="B59" s="15">
+        <f t="shared" si="1"/>
+        <v>671</v>
+      </c>
+      <c r="C59" s="29"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="64"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="14"/>
+      <c r="B60" s="15">
+        <f t="shared" si="1"/>
+        <v>672</v>
+      </c>
+      <c r="C60" s="29"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="64"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="14"/>
+      <c r="B61" s="15">
+        <f t="shared" si="1"/>
+        <v>673</v>
+      </c>
+      <c r="C61" s="29"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="14"/>
+      <c r="B62" s="15">
+        <f t="shared" si="1"/>
+        <v>674</v>
+      </c>
+      <c r="C62" s="29"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="64"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="14"/>
+      <c r="B63" s="15">
+        <f t="shared" si="1"/>
+        <v>675</v>
+      </c>
+      <c r="C63" s="29"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="64"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="14"/>
+      <c r="B64" s="15">
+        <f t="shared" si="1"/>
+        <v>676</v>
+      </c>
+      <c r="C64" s="29"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="26"/>
+      <c r="B65" s="15">
+        <f t="shared" si="1"/>
+        <v>677</v>
+      </c>
+      <c r="C65" s="29"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="64"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="26"/>
+      <c r="B66" s="15">
+        <f t="shared" si="1"/>
+        <v>678</v>
+      </c>
+      <c r="C66" s="29"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="64"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="26"/>
+      <c r="B67" s="15">
+        <f t="shared" si="1"/>
+        <v>679</v>
+      </c>
+      <c r="C67" s="29"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="64"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="26"/>
+      <c r="B68" s="15">
+        <f t="shared" si="1"/>
+        <v>680</v>
+      </c>
+      <c r="C68" s="29"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="64"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="26"/>
+      <c r="B69" s="15">
+        <f t="shared" si="1"/>
+        <v>681</v>
+      </c>
+      <c r="C69" s="29"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="64"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="26"/>
+      <c r="B70" s="15">
+        <f t="shared" ref="B70:B133" si="2">B69+1</f>
+        <v>682</v>
+      </c>
+      <c r="C70" s="29"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="26"/>
+      <c r="B71" s="15">
+        <f t="shared" si="2"/>
+        <v>683</v>
+      </c>
+      <c r="C71" s="29"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="64"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="26"/>
+      <c r="B72" s="15">
+        <f t="shared" si="2"/>
+        <v>684</v>
+      </c>
+      <c r="C72" s="29"/>
+      <c r="D72" s="27"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="26"/>
+      <c r="B73" s="15">
+        <f t="shared" si="2"/>
+        <v>685</v>
+      </c>
+      <c r="C73" s="29"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="26"/>
+      <c r="B74" s="15">
+        <f t="shared" si="2"/>
+        <v>686</v>
+      </c>
+      <c r="C74" s="29"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="26"/>
+      <c r="B75" s="15">
+        <f t="shared" si="2"/>
+        <v>687</v>
+      </c>
+      <c r="C75" s="29"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="26"/>
+      <c r="B76" s="15">
+        <f t="shared" si="2"/>
+        <v>688</v>
+      </c>
+      <c r="C76" s="29"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="64"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="26"/>
+      <c r="B77" s="15">
+        <f t="shared" si="2"/>
+        <v>689</v>
+      </c>
+      <c r="C77" s="29"/>
+      <c r="D77" s="27"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="64"/>
+      <c r="G77" s="25"/>
+      <c r="H77" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="26"/>
+      <c r="B78" s="15">
+        <f t="shared" si="2"/>
+        <v>690</v>
+      </c>
+      <c r="C78" s="29"/>
+      <c r="D78" s="27"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="64"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="26"/>
+      <c r="B79" s="15">
+        <f t="shared" si="2"/>
+        <v>691</v>
+      </c>
+      <c r="C79" s="29"/>
+      <c r="D79" s="27"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="64"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="26"/>
+      <c r="B80" s="15">
+        <f t="shared" si="2"/>
+        <v>692</v>
+      </c>
+      <c r="C80" s="29"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="26"/>
+      <c r="B81" s="15">
+        <f t="shared" si="2"/>
+        <v>693</v>
+      </c>
+      <c r="C81" s="29"/>
+      <c r="D81" s="27"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="64"/>
+      <c r="G81" s="25"/>
+      <c r="H81" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="26"/>
+      <c r="B82" s="15">
+        <f t="shared" si="2"/>
+        <v>694</v>
+      </c>
+      <c r="C82" s="29"/>
+      <c r="D82" s="27"/>
+      <c r="E82" s="23"/>
+      <c r="F82" s="24"/>
+      <c r="G82" s="25"/>
+      <c r="H82" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="26"/>
+      <c r="B83" s="15">
+        <f t="shared" si="2"/>
+        <v>695</v>
+      </c>
+      <c r="C83" s="29"/>
+      <c r="D83" s="27"/>
+      <c r="E83" s="23"/>
+      <c r="F83" s="64"/>
+      <c r="G83" s="25"/>
+      <c r="H83" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="26"/>
+      <c r="B84" s="15">
+        <f t="shared" si="2"/>
+        <v>696</v>
+      </c>
+      <c r="C84" s="29"/>
+      <c r="D84" s="27"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="24"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="26"/>
+      <c r="B85" s="15">
+        <f t="shared" si="2"/>
+        <v>697</v>
+      </c>
+      <c r="C85" s="29"/>
+      <c r="D85" s="27"/>
+      <c r="E85" s="23"/>
+      <c r="F85" s="24"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="26"/>
+      <c r="B86" s="15">
+        <f t="shared" si="2"/>
+        <v>698</v>
+      </c>
+      <c r="C86" s="29"/>
+      <c r="D86" s="27"/>
+      <c r="E86" s="23"/>
+      <c r="F86" s="24"/>
+      <c r="G86" s="25"/>
+      <c r="H86" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="26"/>
+      <c r="B87" s="15">
+        <f t="shared" si="2"/>
+        <v>699</v>
+      </c>
+      <c r="C87" s="29"/>
+      <c r="D87" s="27"/>
+      <c r="E87" s="23"/>
+      <c r="F87" s="24"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="26"/>
+      <c r="B88" s="15">
+        <f t="shared" si="2"/>
+        <v>700</v>
+      </c>
+      <c r="C88" s="29"/>
+      <c r="D88" s="27"/>
+      <c r="E88" s="23"/>
+      <c r="F88" s="24"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="26"/>
+      <c r="B89" s="15">
+        <f t="shared" si="2"/>
+        <v>701</v>
+      </c>
+      <c r="C89" s="29"/>
+      <c r="D89" s="27"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="24"/>
+      <c r="G89" s="25"/>
+      <c r="H89" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="26"/>
+      <c r="B90" s="15">
+        <f t="shared" si="2"/>
+        <v>702</v>
+      </c>
+      <c r="C90" s="29"/>
+      <c r="D90" s="27"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="24"/>
+      <c r="G90" s="25"/>
+      <c r="H90" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="26"/>
+      <c r="B91" s="15">
+        <f t="shared" si="2"/>
+        <v>703</v>
+      </c>
+      <c r="C91" s="29"/>
+      <c r="D91" s="27"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="64"/>
+      <c r="G91" s="25"/>
+      <c r="H91" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="26"/>
+      <c r="B92" s="15">
+        <f t="shared" si="2"/>
+        <v>704</v>
+      </c>
+      <c r="C92" s="29"/>
+      <c r="D92" s="27"/>
+      <c r="E92" s="23"/>
+      <c r="F92" s="24"/>
+      <c r="G92" s="25"/>
+      <c r="H92" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="26"/>
+      <c r="B93" s="15">
+        <f t="shared" si="2"/>
+        <v>705</v>
+      </c>
+      <c r="C93" s="29"/>
+      <c r="D93" s="27"/>
+      <c r="E93" s="23"/>
+      <c r="F93" s="64"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="26"/>
+      <c r="B94" s="15">
+        <f t="shared" si="2"/>
+        <v>706</v>
+      </c>
+      <c r="C94" s="29"/>
+      <c r="D94" s="27"/>
+      <c r="E94" s="23"/>
+      <c r="F94" s="24"/>
+      <c r="G94" s="25"/>
+      <c r="H94" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="26"/>
+      <c r="B95" s="15">
+        <f t="shared" si="2"/>
+        <v>707</v>
+      </c>
+      <c r="C95" s="29"/>
+      <c r="D95" s="27"/>
+      <c r="E95" s="23"/>
+      <c r="F95" s="24"/>
+      <c r="G95" s="25"/>
+      <c r="H95" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="26"/>
+      <c r="B96" s="15">
+        <f t="shared" si="2"/>
+        <v>708</v>
+      </c>
+      <c r="C96" s="29"/>
+      <c r="D96" s="27"/>
+      <c r="E96" s="23"/>
+      <c r="F96" s="24"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="26"/>
+      <c r="B97" s="15">
+        <f t="shared" si="2"/>
+        <v>709</v>
+      </c>
+      <c r="C97" s="29"/>
+      <c r="D97" s="27"/>
+      <c r="E97" s="23"/>
+      <c r="F97" s="64"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="26"/>
+      <c r="B98" s="15">
+        <f t="shared" si="2"/>
+        <v>710</v>
+      </c>
+      <c r="C98" s="29"/>
+      <c r="D98" s="27"/>
+      <c r="E98" s="23"/>
+      <c r="F98" s="64"/>
+      <c r="G98" s="25"/>
+      <c r="H98" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="26"/>
+      <c r="B99" s="15">
+        <f t="shared" si="2"/>
+        <v>711</v>
+      </c>
+      <c r="C99" s="29"/>
+      <c r="D99" s="27"/>
+      <c r="E99" s="23"/>
+      <c r="F99" s="24"/>
+      <c r="G99" s="25"/>
+      <c r="H99" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="26"/>
+      <c r="B100" s="15">
+        <f t="shared" si="2"/>
+        <v>712</v>
+      </c>
+      <c r="C100" s="29"/>
+      <c r="D100" s="27"/>
+      <c r="E100" s="23"/>
+      <c r="F100" s="24"/>
+      <c r="G100" s="25"/>
+      <c r="H100" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="26"/>
+      <c r="B101" s="15">
+        <f t="shared" si="2"/>
+        <v>713</v>
+      </c>
+      <c r="C101" s="29"/>
+      <c r="D101" s="27"/>
+      <c r="E101" s="23"/>
+      <c r="F101" s="24"/>
+      <c r="G101" s="25"/>
+      <c r="H101" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="26"/>
+      <c r="B102" s="15">
+        <f t="shared" si="2"/>
+        <v>714</v>
+      </c>
+      <c r="C102" s="29"/>
+      <c r="D102" s="27"/>
+      <c r="E102" s="23"/>
+      <c r="F102" s="24"/>
+      <c r="G102" s="25"/>
+      <c r="H102" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="26"/>
+      <c r="B103" s="15">
+        <f t="shared" si="2"/>
+        <v>715</v>
+      </c>
+      <c r="C103" s="29"/>
+      <c r="D103" s="27"/>
+      <c r="E103" s="23"/>
+      <c r="F103" s="24"/>
+      <c r="G103" s="25"/>
+      <c r="H103" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="26"/>
+      <c r="B104" s="15">
+        <f t="shared" si="2"/>
+        <v>716</v>
+      </c>
+      <c r="C104" s="29"/>
+      <c r="D104" s="27"/>
+      <c r="E104" s="23"/>
+      <c r="F104" s="64"/>
+      <c r="G104" s="25"/>
+      <c r="H104" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="26"/>
+      <c r="B105" s="15">
+        <f t="shared" si="2"/>
+        <v>717</v>
+      </c>
+      <c r="C105" s="29"/>
+      <c r="D105" s="27"/>
+      <c r="E105" s="23"/>
+      <c r="F105" s="24"/>
+      <c r="G105" s="25"/>
+      <c r="H105" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="26"/>
+      <c r="B106" s="15">
+        <f t="shared" si="2"/>
+        <v>718</v>
+      </c>
+      <c r="C106" s="29"/>
+      <c r="D106" s="27"/>
+      <c r="E106" s="23"/>
+      <c r="F106" s="24"/>
+      <c r="G106" s="25"/>
+      <c r="H106" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="26"/>
+      <c r="B107" s="15">
+        <f t="shared" si="2"/>
+        <v>719</v>
+      </c>
+      <c r="C107" s="29"/>
+      <c r="D107" s="27"/>
+      <c r="E107" s="23"/>
+      <c r="F107" s="24"/>
+      <c r="G107" s="25"/>
+      <c r="H107" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="26"/>
+      <c r="B108" s="15">
+        <f t="shared" si="2"/>
+        <v>720</v>
+      </c>
+      <c r="C108" s="29"/>
+      <c r="D108" s="27"/>
+      <c r="E108" s="23"/>
+      <c r="F108" s="24"/>
+      <c r="G108" s="25"/>
+      <c r="H108" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="26"/>
+      <c r="B109" s="15">
+        <f t="shared" si="2"/>
+        <v>721</v>
+      </c>
+      <c r="C109" s="29"/>
+      <c r="D109" s="27"/>
+      <c r="E109" s="23"/>
+      <c r="F109" s="24"/>
+      <c r="G109" s="25"/>
+      <c r="H109" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="26"/>
+      <c r="B110" s="15">
+        <f t="shared" si="2"/>
+        <v>722</v>
+      </c>
+      <c r="C110" s="29"/>
+      <c r="D110" s="27"/>
+      <c r="E110" s="23"/>
+      <c r="F110" s="24"/>
+      <c r="G110" s="25"/>
+      <c r="H110" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="26"/>
+      <c r="B111" s="15">
+        <f t="shared" si="2"/>
+        <v>723</v>
+      </c>
+      <c r="C111" s="29"/>
+      <c r="D111" s="27"/>
+      <c r="E111" s="23"/>
+      <c r="F111" s="24"/>
+      <c r="G111" s="25"/>
+      <c r="H111" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="26"/>
+      <c r="B112" s="15">
+        <f t="shared" si="2"/>
+        <v>724</v>
+      </c>
+      <c r="C112" s="29"/>
+      <c r="D112" s="27"/>
+      <c r="E112" s="23"/>
+      <c r="F112" s="24"/>
+      <c r="G112" s="25"/>
+      <c r="H112" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="26"/>
+      <c r="B113" s="15">
+        <f t="shared" si="2"/>
+        <v>725</v>
+      </c>
+      <c r="C113" s="29"/>
+      <c r="D113" s="27"/>
+      <c r="E113" s="23"/>
+      <c r="F113" s="24"/>
+      <c r="G113" s="25"/>
+      <c r="H113" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="26"/>
+      <c r="B114" s="15">
+        <f t="shared" si="2"/>
+        <v>726</v>
+      </c>
+      <c r="C114" s="29"/>
+      <c r="D114" s="27"/>
+      <c r="E114" s="23"/>
+      <c r="F114" s="24"/>
+      <c r="G114" s="25"/>
+      <c r="H114" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="26"/>
+      <c r="B115" s="15">
+        <f t="shared" si="2"/>
+        <v>727</v>
+      </c>
+      <c r="C115" s="29"/>
+      <c r="D115" s="27"/>
+      <c r="E115" s="23"/>
+      <c r="F115" s="24"/>
+      <c r="G115" s="25"/>
+      <c r="H115" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="26"/>
+      <c r="B116" s="15">
+        <f t="shared" si="2"/>
+        <v>728</v>
+      </c>
+      <c r="C116" s="29"/>
+      <c r="D116" s="27"/>
+      <c r="E116" s="23"/>
+      <c r="F116" s="24"/>
+      <c r="G116" s="25"/>
+      <c r="H116" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="26"/>
+      <c r="B117" s="15">
+        <f t="shared" si="2"/>
+        <v>729</v>
+      </c>
+      <c r="C117" s="29"/>
+      <c r="D117" s="27"/>
+      <c r="E117" s="23"/>
+      <c r="F117" s="24"/>
+      <c r="G117" s="25"/>
+      <c r="H117" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="26"/>
+      <c r="B118" s="15">
+        <f t="shared" si="2"/>
+        <v>730</v>
+      </c>
+      <c r="C118" s="29"/>
+      <c r="D118" s="27"/>
+      <c r="E118" s="23"/>
+      <c r="F118" s="24"/>
+      <c r="G118" s="25"/>
+      <c r="H118" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="26"/>
+      <c r="B119" s="15">
+        <f t="shared" si="2"/>
+        <v>731</v>
+      </c>
+      <c r="C119" s="29"/>
+      <c r="D119" s="27"/>
+      <c r="E119" s="23"/>
+      <c r="F119" s="24"/>
+      <c r="G119" s="25"/>
+      <c r="H119" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="26"/>
+      <c r="B120" s="15">
+        <f t="shared" si="2"/>
+        <v>732</v>
+      </c>
+      <c r="C120" s="29"/>
+      <c r="D120" s="27"/>
+      <c r="E120" s="23"/>
+      <c r="F120" s="64"/>
+      <c r="G120" s="25"/>
+      <c r="H120" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="26"/>
+      <c r="B121" s="15">
+        <f t="shared" si="2"/>
+        <v>733</v>
+      </c>
+      <c r="C121" s="29"/>
+      <c r="D121" s="27"/>
+      <c r="E121" s="23"/>
+      <c r="F121" s="24"/>
+      <c r="G121" s="25"/>
+      <c r="H121" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="26"/>
+      <c r="B122" s="15">
+        <f t="shared" si="2"/>
+        <v>734</v>
+      </c>
+      <c r="C122" s="29"/>
+      <c r="D122" s="27"/>
+      <c r="E122" s="23"/>
+      <c r="F122" s="24"/>
+      <c r="G122" s="25"/>
+      <c r="H122" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="26"/>
+      <c r="B123" s="15">
+        <f t="shared" si="2"/>
+        <v>735</v>
+      </c>
+      <c r="C123" s="29"/>
+      <c r="D123" s="27"/>
+      <c r="E123" s="23"/>
+      <c r="F123" s="24"/>
+      <c r="G123" s="25"/>
+      <c r="H123" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="26"/>
+      <c r="B124" s="15">
+        <f t="shared" si="2"/>
+        <v>736</v>
+      </c>
+      <c r="C124" s="29"/>
+      <c r="D124" s="27"/>
+      <c r="E124" s="23"/>
+      <c r="F124" s="24"/>
+      <c r="G124" s="25"/>
+      <c r="H124" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="26"/>
+      <c r="B125" s="15">
+        <f t="shared" si="2"/>
+        <v>737</v>
+      </c>
+      <c r="C125" s="29"/>
+      <c r="D125" s="27"/>
+      <c r="E125" s="23"/>
+      <c r="F125" s="24"/>
+      <c r="G125" s="25"/>
+      <c r="H125" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="26"/>
+      <c r="B126" s="15">
+        <f t="shared" si="2"/>
+        <v>738</v>
+      </c>
+      <c r="C126" s="29"/>
+      <c r="D126" s="27"/>
+      <c r="E126" s="23"/>
+      <c r="F126" s="24"/>
+      <c r="G126" s="25"/>
+      <c r="H126" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="26"/>
+      <c r="B127" s="15">
+        <f t="shared" si="2"/>
+        <v>739</v>
+      </c>
+      <c r="C127" s="29"/>
+      <c r="D127" s="27"/>
+      <c r="E127" s="23"/>
+      <c r="F127" s="24"/>
+      <c r="G127" s="25"/>
+      <c r="H127" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="26"/>
+      <c r="B128" s="15">
+        <f t="shared" si="2"/>
+        <v>740</v>
+      </c>
+      <c r="C128" s="29"/>
+      <c r="D128" s="27"/>
+      <c r="E128" s="23"/>
+      <c r="F128" s="24"/>
+      <c r="G128" s="25"/>
+      <c r="H128" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="26"/>
+      <c r="B129" s="15">
+        <f t="shared" si="2"/>
+        <v>741</v>
+      </c>
+      <c r="C129" s="29"/>
+      <c r="D129" s="27"/>
+      <c r="E129" s="23"/>
+      <c r="F129" s="24"/>
+      <c r="G129" s="25"/>
+      <c r="H129" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="26"/>
+      <c r="B130" s="15">
+        <f t="shared" si="2"/>
+        <v>742</v>
+      </c>
+      <c r="C130" s="29"/>
+      <c r="D130" s="27"/>
+      <c r="E130" s="23"/>
+      <c r="F130" s="24"/>
+      <c r="G130" s="25"/>
+      <c r="H130" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="26"/>
+      <c r="B131" s="15">
+        <f t="shared" si="2"/>
+        <v>743</v>
+      </c>
+      <c r="C131" s="29"/>
+      <c r="D131" s="27"/>
+      <c r="E131" s="23"/>
+      <c r="F131" s="24"/>
+      <c r="G131" s="25"/>
+      <c r="H131" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="26"/>
+      <c r="B132" s="15">
+        <f t="shared" si="2"/>
+        <v>744</v>
+      </c>
+      <c r="C132" s="29"/>
+      <c r="D132" s="27"/>
+      <c r="E132" s="23"/>
+      <c r="F132" s="24"/>
+      <c r="G132" s="25"/>
+      <c r="H132" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="26"/>
+      <c r="B133" s="15">
+        <f t="shared" si="2"/>
+        <v>745</v>
+      </c>
+      <c r="C133" s="29"/>
+      <c r="D133" s="27"/>
+      <c r="E133" s="23"/>
+      <c r="F133" s="24"/>
+      <c r="G133" s="25"/>
+      <c r="H133" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="26"/>
+      <c r="B134" s="15">
+        <f t="shared" ref="B134:B138" si="3">B133+1</f>
+        <v>746</v>
+      </c>
+      <c r="C134" s="29"/>
+      <c r="D134" s="27"/>
+      <c r="E134" s="23"/>
+      <c r="F134" s="24"/>
+      <c r="G134" s="25"/>
+      <c r="H134" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="26"/>
+      <c r="B135" s="15">
+        <f t="shared" si="3"/>
+        <v>747</v>
+      </c>
+      <c r="C135" s="29"/>
+      <c r="D135" s="27"/>
+      <c r="E135" s="23"/>
+      <c r="F135" s="24"/>
+      <c r="G135" s="25"/>
+      <c r="H135" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="26"/>
+      <c r="B136" s="15">
+        <f t="shared" si="3"/>
+        <v>748</v>
+      </c>
+      <c r="C136" s="29"/>
+      <c r="D136" s="27"/>
+      <c r="E136" s="23"/>
+      <c r="F136" s="24"/>
+      <c r="G136" s="25"/>
+      <c r="H136" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="26"/>
+      <c r="B137" s="15">
+        <f t="shared" si="3"/>
+        <v>749</v>
+      </c>
+      <c r="C137" s="29"/>
+      <c r="D137" s="27"/>
+      <c r="E137" s="23"/>
+      <c r="F137" s="24"/>
+      <c r="G137" s="25"/>
+      <c r="H137" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="35"/>
+      <c r="B138" s="15">
+        <f t="shared" si="3"/>
+        <v>750</v>
+      </c>
+      <c r="C138" s="37"/>
+      <c r="D138" s="38"/>
+      <c r="E138" s="39">
+        <v>0</v>
+      </c>
+      <c r="F138" s="40"/>
+      <c r="G138" s="41"/>
+      <c r="H138" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I138" s="2"/>
+    </row>
+    <row r="139" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B139" s="43"/>
+      <c r="C139" s="44"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="45">
+        <f>SUM(E4:E138)</f>
+        <v>155244</v>
+      </c>
+      <c r="F139" s="45"/>
+      <c r="G139" s="45">
+        <f>SUM(G4:G138)</f>
+        <v>120319</v>
+      </c>
+      <c r="H139" s="78">
+        <f>SUM(H4:H138)</f>
+        <v>34925</v>
+      </c>
+      <c r="I139" s="2"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B140" s="43"/>
+      <c r="C140" s="44"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="47"/>
+      <c r="F140" s="48"/>
+      <c r="G140" s="49"/>
+      <c r="H140" s="79"/>
+      <c r="I140" s="2"/>
+    </row>
+    <row r="141" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B141" s="43"/>
+      <c r="C141" s="44"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F141" s="48"/>
+      <c r="G141" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="H141" s="79"/>
+      <c r="I141" s="2"/>
+    </row>
+    <row r="142" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B142" s="43"/>
+      <c r="C142" s="44"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="51"/>
+      <c r="F142" s="48"/>
+      <c r="G142" s="52"/>
+      <c r="H142" s="79"/>
+      <c r="I142" s="2"/>
+    </row>
+    <row r="143" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B143" s="43"/>
+      <c r="C143" s="44"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="84">
+        <f>E139-G139</f>
+        <v>34925</v>
+      </c>
+      <c r="F143" s="85"/>
+      <c r="G143" s="86"/>
+      <c r="I143" s="2"/>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B144" s="43"/>
+      <c r="C144" s="44"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="47"/>
+      <c r="F144" s="48"/>
+      <c r="G144" s="49"/>
+      <c r="I144" s="2"/>
+    </row>
+    <row r="145" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B145" s="43"/>
+      <c r="C145" s="44"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="87" t="s">
+        <v>12</v>
+      </c>
+      <c r="F145" s="87"/>
+      <c r="G145" s="87"/>
+      <c r="I145" s="2"/>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B146" s="43"/>
+      <c r="C146" s="44"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="47"/>
+      <c r="F146" s="48"/>
+      <c r="G146" s="49"/>
+      <c r="I146" s="2"/>
+    </row>
+    <row r="147" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A147" s="26"/>
+      <c r="B147" s="15"/>
+      <c r="C147" s="29"/>
+      <c r="D147" s="53"/>
+      <c r="E147" s="54"/>
+      <c r="F147" s="55"/>
+      <c r="G147" s="54"/>
+      <c r="I147" s="2"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B148" s="43"/>
+      <c r="C148" s="44"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="47"/>
+      <c r="F148" s="48"/>
+      <c r="G148" s="49"/>
+      <c r="I148" s="2"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B149" s="43"/>
+      <c r="C149" s="44"/>
+      <c r="D149" s="2"/>
+      <c r="E149" s="47"/>
+      <c r="F149" s="48"/>
+      <c r="G149" s="49"/>
+      <c r="I149" s="2"/>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B150" s="43"/>
+      <c r="C150" s="44"/>
+      <c r="D150" s="2"/>
+      <c r="E150" s="47"/>
+      <c r="F150" s="48"/>
+      <c r="G150" s="49"/>
+      <c r="I150" s="2"/>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B151" s="43"/>
+      <c r="C151" s="44"/>
+      <c r="D151" s="2"/>
+      <c r="E151" s="47"/>
+      <c r="F151" s="48"/>
+      <c r="G151" s="49"/>
+      <c r="I151" s="2"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B152" s="43"/>
+      <c r="C152" s="44"/>
+      <c r="D152" s="2"/>
+      <c r="E152" s="47"/>
+      <c r="F152" s="48"/>
+      <c r="G152" s="49"/>
+      <c r="I152" s="2"/>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B153" s="43"/>
+      <c r="C153" s="44"/>
+      <c r="D153" s="2"/>
+      <c r="E153" s="47"/>
+      <c r="F153" s="48"/>
+      <c r="G153" s="49"/>
+      <c r="I153" s="2"/>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B154" s="43"/>
+      <c r="C154" s="44"/>
+      <c r="D154" s="2"/>
+      <c r="E154" s="47"/>
+      <c r="F154" s="48"/>
+      <c r="G154" s="49"/>
+      <c r="I154" s="2"/>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B155" s="43"/>
+      <c r="C155" s="44"/>
+      <c r="D155" s="2"/>
+      <c r="E155" s="47"/>
+      <c r="F155" s="48"/>
+      <c r="G155" s="49"/>
+      <c r="I155" s="2"/>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B156" s="43"/>
+      <c r="C156" s="44"/>
+      <c r="D156" s="2"/>
+      <c r="E156" s="47"/>
+      <c r="F156" s="48"/>
+      <c r="G156" s="49"/>
+      <c r="I156" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="E143:G143"/>
+    <mergeCell ref="E145:G145"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3224,25 +6068,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="76"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="82"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
+      <c r="B2" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -4267,12 +7111,12 @@
       <c r="B55" s="43"/>
       <c r="C55" s="44"/>
       <c r="D55" s="2"/>
-      <c r="E55" s="78">
+      <c r="E55" s="84">
         <f>E51-G51</f>
         <v>0</v>
       </c>
-      <c r="F55" s="79"/>
-      <c r="G55" s="80"/>
+      <c r="F55" s="85"/>
+      <c r="G55" s="86"/>
       <c r="I55" s="2"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -4288,11 +7132,11 @@
       <c r="B57" s="43"/>
       <c r="C57" s="44"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="81" t="s">
+      <c r="E57" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="F57" s="81"/>
-      <c r="G57" s="81"/>
+      <c r="F57" s="87"/>
+      <c r="G57" s="87"/>
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -4434,25 +7278,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="76"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="82"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
+      <c r="B2" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -5399,12 +8243,12 @@
       <c r="B52" s="43"/>
       <c r="C52" s="44"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="78">
+      <c r="E52" s="84">
         <f>E48-G48</f>
         <v>0</v>
       </c>
-      <c r="F52" s="79"/>
-      <c r="G52" s="80"/>
+      <c r="F52" s="85"/>
+      <c r="G52" s="86"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -5420,11 +8264,11 @@
       <c r="B54" s="43"/>
       <c r="C54" s="44"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="81" t="s">
+      <c r="E54" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="F54" s="81"/>
-      <c r="G54" s="81"/>
+      <c r="F54" s="87"/>
+      <c r="G54" s="87"/>
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -5566,25 +8410,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="76"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="82"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
+      <c r="B2" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -6900,12 +9744,12 @@
       <c r="B63" s="43"/>
       <c r="C63" s="44"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="78">
+      <c r="E63" s="84">
         <f>E59-G59</f>
         <v>0</v>
       </c>
-      <c r="F63" s="79"/>
-      <c r="G63" s="80"/>
+      <c r="F63" s="85"/>
+      <c r="G63" s="86"/>
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -6921,11 +9765,11 @@
       <c r="B65" s="43"/>
       <c r="C65" s="44"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="81" t="s">
+      <c r="E65" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="F65" s="81"/>
-      <c r="G65" s="81"/>
+      <c r="F65" s="87"/>
+      <c r="G65" s="87"/>
       <c r="I65" s="2"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -7067,25 +9911,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="76"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="82"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
+      <c r="B2" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -8419,12 +11263,12 @@
       <c r="B57" s="43"/>
       <c r="C57" s="44"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="78">
+      <c r="E57" s="84">
         <f>E53-G53</f>
         <v>0</v>
       </c>
-      <c r="F57" s="79"/>
-      <c r="G57" s="80"/>
+      <c r="F57" s="85"/>
+      <c r="G57" s="86"/>
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -8440,11 +11284,11 @@
       <c r="B59" s="43"/>
       <c r="C59" s="44"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="81" t="s">
+      <c r="E59" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="F59" s="81"/>
-      <c r="G59" s="81"/>
+      <c r="F59" s="87"/>
+      <c r="G59" s="87"/>
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -8587,25 +11431,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="76"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="82"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
+      <c r="B2" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -10398,12 +13242,12 @@
       <c r="B76" s="43"/>
       <c r="C76" s="44"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="78">
+      <c r="E76" s="84">
         <f>E72-G72</f>
         <v>0</v>
       </c>
-      <c r="F76" s="79"/>
-      <c r="G76" s="80"/>
+      <c r="F76" s="85"/>
+      <c r="G76" s="86"/>
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -10419,11 +13263,11 @@
       <c r="B78" s="43"/>
       <c r="C78" s="44"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="81" t="s">
+      <c r="E78" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="F78" s="81"/>
-      <c r="G78" s="81"/>
+      <c r="F78" s="87"/>
+      <c r="G78" s="87"/>
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -10565,25 +13409,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="76"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="82"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
+      <c r="B2" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -12703,12 +15547,12 @@
       <c r="B87" s="43"/>
       <c r="C87" s="44"/>
       <c r="D87" s="2"/>
-      <c r="E87" s="78">
+      <c r="E87" s="84">
         <f>E83-G83</f>
         <v>0</v>
       </c>
-      <c r="F87" s="79"/>
-      <c r="G87" s="80"/>
+      <c r="F87" s="85"/>
+      <c r="G87" s="86"/>
       <c r="I87" s="2"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -12724,11 +15568,11 @@
       <c r="B89" s="43"/>
       <c r="C89" s="44"/>
       <c r="D89" s="2"/>
-      <c r="E89" s="81" t="s">
+      <c r="E89" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="F89" s="81"/>
-      <c r="G89" s="81"/>
+      <c r="F89" s="87"/>
+      <c r="G89" s="87"/>
       <c r="I89" s="2"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -12874,25 +15718,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="76"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="82"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
+      <c r="B2" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -15317,12 +18161,12 @@
       <c r="B98" s="43"/>
       <c r="C98" s="44"/>
       <c r="D98" s="2"/>
-      <c r="E98" s="78">
+      <c r="E98" s="84">
         <f>E94-G94</f>
         <v>0</v>
       </c>
-      <c r="F98" s="79"/>
-      <c r="G98" s="80"/>
+      <c r="F98" s="85"/>
+      <c r="G98" s="86"/>
       <c r="I98" s="2"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -15338,11 +18182,11 @@
       <c r="B100" s="43"/>
       <c r="C100" s="44"/>
       <c r="D100" s="2"/>
-      <c r="E100" s="81" t="s">
+      <c r="E100" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="F100" s="81"/>
-      <c r="G100" s="81"/>
+      <c r="F100" s="87"/>
+      <c r="G100" s="87"/>
       <c r="I100" s="2"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -15465,8 +18309,8 @@
   </sheetPr>
   <dimension ref="A1:I156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="D135" sqref="D135"/>
+    <sheetView topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="G131" sqref="G131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -15485,25 +18329,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="76"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="82"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
+      <c r="B2" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -18281,7 +21125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A109" s="26">
         <v>44831</v>
       </c>
@@ -18296,15 +21140,16 @@
       <c r="E109" s="23">
         <v>12396</v>
       </c>
-      <c r="F109" s="24">
-        <v>44835</v>
-      </c>
-      <c r="G109" s="25">
-        <v>6500</v>
-      </c>
-      <c r="H109" s="73">
-        <f t="shared" si="0"/>
-        <v>5896</v>
+      <c r="F109" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="G109" s="62">
+        <f>6500+2000+3896</f>
+        <v>12396</v>
+      </c>
+      <c r="H109" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18751,7 +21596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A127" s="26">
         <v>44834</v>
       </c>
@@ -18766,16 +21611,16 @@
       <c r="E127" s="23">
         <v>3805</v>
       </c>
-      <c r="F127" s="24">
-        <v>44836</v>
-      </c>
-      <c r="G127" s="25">
-        <f>1300</f>
-        <v>1300</v>
-      </c>
-      <c r="H127" s="73">
-        <f t="shared" si="0"/>
-        <v>2505</v>
+      <c r="F127" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="G127" s="62">
+        <f>1300+2505</f>
+        <v>3805</v>
+      </c>
+      <c r="H127" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18819,11 +21664,15 @@
       <c r="E129" s="23">
         <v>3173</v>
       </c>
-      <c r="F129" s="24"/>
-      <c r="G129" s="25"/>
+      <c r="F129" s="61">
+        <v>44838</v>
+      </c>
+      <c r="G129" s="62">
+        <v>3173</v>
+      </c>
       <c r="H129" s="21">
         <f t="shared" si="0"/>
-        <v>3173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18841,11 +21690,15 @@
       <c r="E130" s="23">
         <v>10645</v>
       </c>
-      <c r="F130" s="24"/>
-      <c r="G130" s="25"/>
+      <c r="F130" s="61">
+        <v>44838</v>
+      </c>
+      <c r="G130" s="62">
+        <v>10645</v>
+      </c>
       <c r="H130" s="21">
         <f t="shared" si="0"/>
-        <v>10645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18863,11 +21716,15 @@
       <c r="E131" s="23">
         <v>20060</v>
       </c>
-      <c r="F131" s="24"/>
-      <c r="G131" s="25"/>
+      <c r="F131" s="61">
+        <v>44843</v>
+      </c>
+      <c r="G131" s="62">
+        <v>19000</v>
+      </c>
       <c r="H131" s="21">
         <f t="shared" si="0"/>
-        <v>20060</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18885,11 +21742,15 @@
       <c r="E132" s="23">
         <v>750</v>
       </c>
-      <c r="F132" s="24"/>
-      <c r="G132" s="25"/>
+      <c r="F132" s="61">
+        <v>44840</v>
+      </c>
+      <c r="G132" s="62">
+        <v>750</v>
+      </c>
       <c r="H132" s="21">
         <f t="shared" si="0"/>
-        <v>750</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18907,19 +21768,23 @@
       <c r="E133" s="23">
         <v>7935</v>
       </c>
-      <c r="F133" s="24"/>
-      <c r="G133" s="25"/>
+      <c r="F133" s="61">
+        <v>44838</v>
+      </c>
+      <c r="G133" s="62">
+        <v>7935</v>
+      </c>
       <c r="H133" s="21">
         <f t="shared" si="0"/>
-        <v>7935</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A134" s="26">
         <v>44836</v>
       </c>
       <c r="B134" s="15">
-        <f t="shared" ref="B134:B138" si="3">B133+1</f>
+        <f t="shared" ref="B134" si="3">B133+1</f>
         <v>615</v>
       </c>
       <c r="C134" s="29"/>
@@ -18929,19 +21794,21 @@
       <c r="E134" s="23">
         <v>13871</v>
       </c>
-      <c r="F134" s="24"/>
-      <c r="G134" s="25"/>
+      <c r="F134" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="G134" s="62">
+        <f>1600+1900+1000+5371+4000</f>
+        <v>13871</v>
+      </c>
       <c r="H134" s="21">
         <f t="shared" si="0"/>
-        <v>13871</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="26"/>
-      <c r="B135" s="15">
-        <f t="shared" si="3"/>
-        <v>616</v>
-      </c>
+      <c r="B135" s="15"/>
       <c r="C135" s="29"/>
       <c r="D135" s="27"/>
       <c r="E135" s="23"/>
@@ -18954,10 +21821,7 @@
     </row>
     <row r="136" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="26"/>
-      <c r="B136" s="15">
-        <f t="shared" si="3"/>
-        <v>617</v>
-      </c>
+      <c r="B136" s="15"/>
       <c r="C136" s="29"/>
       <c r="D136" s="27"/>
       <c r="E136" s="23"/>
@@ -18970,10 +21834,7 @@
     </row>
     <row r="137" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="26"/>
-      <c r="B137" s="15">
-        <f t="shared" si="3"/>
-        <v>618</v>
-      </c>
+      <c r="B137" s="15"/>
       <c r="C137" s="29"/>
       <c r="D137" s="27"/>
       <c r="E137" s="23"/>
@@ -18986,10 +21847,7 @@
     </row>
     <row r="138" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="35"/>
-      <c r="B138" s="15">
-        <f t="shared" si="3"/>
-        <v>619</v>
-      </c>
+      <c r="B138" s="15"/>
       <c r="C138" s="37"/>
       <c r="D138" s="38"/>
       <c r="E138" s="39">
@@ -19014,11 +21872,11 @@
       <c r="F139" s="45"/>
       <c r="G139" s="45">
         <f>SUM(G4:G138)</f>
-        <v>789783</v>
+        <v>853558</v>
       </c>
       <c r="H139" s="46">
         <f>SUM(H4:H138)</f>
-        <v>64835</v>
+        <v>1060</v>
       </c>
       <c r="I139" s="2"/>
     </row>
@@ -19060,12 +21918,12 @@
       <c r="B143" s="43"/>
       <c r="C143" s="44"/>
       <c r="D143" s="2"/>
-      <c r="E143" s="78">
+      <c r="E143" s="84">
         <f>E139-G139</f>
-        <v>64835</v>
-      </c>
-      <c r="F143" s="79"/>
-      <c r="G143" s="80"/>
+        <v>1060</v>
+      </c>
+      <c r="F143" s="85"/>
+      <c r="G143" s="86"/>
       <c r="I143" s="2"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
@@ -19081,11 +21939,11 @@
       <c r="B145" s="43"/>
       <c r="C145" s="44"/>
       <c r="D145" s="2"/>
-      <c r="E145" s="81" t="s">
+      <c r="E145" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="F145" s="81"/>
-      <c r="G145" s="81"/>
+      <c r="F145" s="87"/>
+      <c r="G145" s="87"/>
       <c r="I145" s="2"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #10  OCTUBRE 2022/CREDITOS  ABASTOS  HERRADURA   OCTUBRE  2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #10  OCTUBRE 2022/CREDITOS  ABASTOS  HERRADURA   OCTUBRE  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6840" yWindow="240" windowWidth="13485" windowHeight="10110" firstSheet="8" activeTab="9"/>
+    <workbookView xWindow="6840" yWindow="240" windowWidth="13485" windowHeight="10110" firstSheet="9" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="REMISIONES  ENERO  2022" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="102">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    H E R R A D U R A </t>
   </si>
@@ -388,6 +388,15 @@
   </si>
   <si>
     <t>9-Oct-22---11-Oct-22</t>
+  </si>
+  <si>
+    <t>9-Oct-22--15-Oct-22</t>
+  </si>
+  <si>
+    <t>13-Oct-22--15-Oct-22--16-Oct-22</t>
+  </si>
+  <si>
+    <t>15-Oct-22--16-Oct-22</t>
   </si>
 </sst>
 </file>
@@ -776,7 +785,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -977,6 +986,7 @@
     <xf numFmtId="166" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="2" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -3315,10 +3325,10 @@
   <dimension ref="A1:I156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A33" sqref="A33"/>
+      <selection pane="bottomRight" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3831,7 +3841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>44842</v>
       </c>
@@ -3846,11 +3856,16 @@
       <c r="E21" s="23">
         <v>15416</v>
       </c>
-      <c r="F21" s="24"/>
-      <c r="G21" s="25"/>
+      <c r="F21" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="25">
+        <f>5930+7486+2000</f>
+        <v>15416</v>
+      </c>
       <c r="H21" s="76">
         <f t="shared" si="0"/>
-        <v>15416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -3998,11 +4013,15 @@
       <c r="E27" s="23">
         <v>289</v>
       </c>
-      <c r="F27" s="24"/>
-      <c r="G27" s="25"/>
+      <c r="F27" s="24">
+        <v>44846</v>
+      </c>
+      <c r="G27" s="25">
+        <v>289</v>
+      </c>
       <c r="H27" s="76">
         <f t="shared" si="0"/>
-        <v>289</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -4046,11 +4065,15 @@
       <c r="E29" s="23">
         <v>2752</v>
       </c>
-      <c r="F29" s="24"/>
-      <c r="G29" s="25"/>
+      <c r="F29" s="24">
+        <v>44849</v>
+      </c>
+      <c r="G29" s="25">
+        <v>2752</v>
+      </c>
       <c r="H29" s="76">
         <f t="shared" si="0"/>
-        <v>2752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -4068,11 +4091,15 @@
       <c r="E30" s="23">
         <v>7672</v>
       </c>
-      <c r="F30" s="64"/>
-      <c r="G30" s="25"/>
+      <c r="F30" s="64">
+        <v>44847</v>
+      </c>
+      <c r="G30" s="25">
+        <v>7672</v>
+      </c>
       <c r="H30" s="76">
         <f t="shared" si="0"/>
-        <v>7672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -4090,11 +4117,15 @@
       <c r="E31" s="23">
         <v>6885</v>
       </c>
-      <c r="F31" s="24"/>
-      <c r="G31" s="25"/>
+      <c r="F31" s="24">
+        <v>44847</v>
+      </c>
+      <c r="G31" s="25">
+        <v>6885</v>
+      </c>
       <c r="H31" s="76">
         <f t="shared" si="0"/>
-        <v>6885</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -4112,315 +4143,483 @@
       <c r="E32" s="23">
         <v>1911</v>
       </c>
-      <c r="F32" s="64"/>
-      <c r="G32" s="25"/>
+      <c r="F32" s="64">
+        <v>44847</v>
+      </c>
+      <c r="G32" s="25">
+        <v>1911</v>
+      </c>
       <c r="H32" s="76">
         <f t="shared" si="0"/>
-        <v>1911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
+      <c r="A33" s="14">
+        <v>44846</v>
+      </c>
       <c r="B33" s="15">
         <f t="shared" si="1"/>
         <v>645</v>
       </c>
       <c r="C33" s="29"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="64"/>
-      <c r="G33" s="25"/>
+      <c r="D33" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="23">
+        <v>757</v>
+      </c>
+      <c r="F33" s="64">
+        <v>44847</v>
+      </c>
+      <c r="G33" s="25">
+        <v>757</v>
+      </c>
       <c r="H33" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
+      <c r="A34" s="14">
+        <v>44847</v>
+      </c>
       <c r="B34" s="15">
         <f t="shared" si="1"/>
         <v>646</v>
       </c>
       <c r="C34" s="29"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="25"/>
+      <c r="D34" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="23">
+        <v>3004</v>
+      </c>
+      <c r="F34" s="64">
+        <v>44848</v>
+      </c>
+      <c r="G34" s="25">
+        <v>3004</v>
+      </c>
       <c r="H34" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
+      <c r="A35" s="14">
+        <v>44847</v>
+      </c>
       <c r="B35" s="15">
         <f t="shared" si="1"/>
         <v>647</v>
       </c>
       <c r="C35" s="29"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="25"/>
+      <c r="D35" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="23">
+        <v>6172</v>
+      </c>
+      <c r="F35" s="24">
+        <v>44849</v>
+      </c>
+      <c r="G35" s="25">
+        <v>6172</v>
+      </c>
       <c r="H35" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
+      <c r="A36" s="14">
+        <v>44847</v>
+      </c>
       <c r="B36" s="15">
         <f t="shared" si="1"/>
         <v>648</v>
       </c>
       <c r="C36" s="29"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="25"/>
+      <c r="D36" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="23">
+        <v>2923</v>
+      </c>
+      <c r="F36" s="64">
+        <v>44848</v>
+      </c>
+      <c r="G36" s="25">
+        <v>2923</v>
+      </c>
       <c r="H36" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
+    <row r="37" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="14">
+        <v>44848</v>
+      </c>
       <c r="B37" s="15">
         <f t="shared" si="1"/>
         <v>649</v>
       </c>
       <c r="C37" s="29"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D37" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="23">
+        <v>30860</v>
+      </c>
+      <c r="F37" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="G37" s="25">
+        <f>2248+25000</f>
+        <v>27248</v>
+      </c>
+      <c r="H37" s="88">
+        <f t="shared" si="0"/>
+        <v>3612</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
+      <c r="A38" s="14">
+        <v>44848</v>
+      </c>
       <c r="B38" s="15">
         <f t="shared" si="1"/>
         <v>650</v>
       </c>
       <c r="C38" s="29"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="64"/>
-      <c r="G38" s="25"/>
+      <c r="D38" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="23">
+        <v>3055</v>
+      </c>
+      <c r="F38" s="64">
+        <v>44849</v>
+      </c>
+      <c r="G38" s="25">
+        <v>3055</v>
+      </c>
       <c r="H38" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
+      <c r="A39" s="14">
+        <v>44848</v>
+      </c>
       <c r="B39" s="15">
         <f t="shared" si="1"/>
         <v>651</v>
       </c>
       <c r="C39" s="29"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="64"/>
-      <c r="G39" s="25"/>
+      <c r="D39" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="23">
+        <v>9632</v>
+      </c>
+      <c r="F39" s="64">
+        <v>44849</v>
+      </c>
+      <c r="G39" s="25">
+        <v>9632</v>
+      </c>
       <c r="H39" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
+      <c r="A40" s="14">
+        <v>44848</v>
+      </c>
       <c r="B40" s="15">
         <f t="shared" si="1"/>
         <v>652</v>
       </c>
       <c r="C40" s="29"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="25"/>
+      <c r="D40" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" s="23">
+        <v>4837</v>
+      </c>
+      <c r="F40" s="24">
+        <v>44850</v>
+      </c>
+      <c r="G40" s="25">
+        <v>4837</v>
+      </c>
       <c r="H40" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
+      <c r="A41" s="14">
+        <v>44848</v>
+      </c>
       <c r="B41" s="15">
         <f t="shared" si="1"/>
         <v>653</v>
       </c>
       <c r="C41" s="29"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="23"/>
+      <c r="D41" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="23">
+        <v>15110</v>
+      </c>
       <c r="F41" s="24"/>
       <c r="G41" s="25"/>
       <c r="H41" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15110</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
+      <c r="A42" s="14">
+        <v>44849</v>
+      </c>
       <c r="B42" s="15">
         <f t="shared" si="1"/>
         <v>654</v>
       </c>
       <c r="C42" s="29"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="25"/>
+      <c r="D42" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="23">
+        <v>5660</v>
+      </c>
+      <c r="F42" s="24">
+        <v>44850</v>
+      </c>
+      <c r="G42" s="25">
+        <v>160</v>
+      </c>
       <c r="H42" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
+      <c r="A43" s="14">
+        <v>44849</v>
+      </c>
       <c r="B43" s="15">
         <f t="shared" si="1"/>
         <v>655</v>
       </c>
       <c r="C43" s="29"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="23"/>
+      <c r="D43" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="23">
+        <v>326</v>
+      </c>
       <c r="F43" s="64"/>
       <c r="G43" s="25"/>
       <c r="H43" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>326</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
+      <c r="A44" s="14">
+        <v>44849</v>
+      </c>
       <c r="B44" s="15">
         <f t="shared" si="1"/>
         <v>656</v>
       </c>
       <c r="C44" s="29"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="64"/>
-      <c r="G44" s="25"/>
+      <c r="D44" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" s="23">
+        <v>6054</v>
+      </c>
+      <c r="F44" s="64">
+        <v>44850</v>
+      </c>
+      <c r="G44" s="25">
+        <v>6054</v>
+      </c>
       <c r="H44" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
+      <c r="A45" s="14">
+        <v>44849</v>
+      </c>
       <c r="B45" s="15">
         <f t="shared" si="1"/>
         <v>657</v>
       </c>
       <c r="C45" s="29"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="23"/>
+      <c r="D45" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="23">
+        <v>2213</v>
+      </c>
       <c r="F45" s="24"/>
       <c r="G45" s="25"/>
       <c r="H45" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
+      <c r="A46" s="14">
+        <v>44849</v>
+      </c>
       <c r="B46" s="15">
         <f t="shared" si="1"/>
         <v>658</v>
       </c>
       <c r="C46" s="29"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="25"/>
+      <c r="D46" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" s="23">
+        <v>7875</v>
+      </c>
+      <c r="F46" s="24">
+        <v>44850</v>
+      </c>
+      <c r="G46" s="25">
+        <v>7875</v>
+      </c>
       <c r="H46" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
+    <row r="47" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="14">
+        <v>44849</v>
+      </c>
       <c r="B47" s="15">
         <f t="shared" si="1"/>
         <v>659</v>
       </c>
       <c r="C47" s="33"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="25"/>
+      <c r="D47" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="23">
+        <v>4699</v>
+      </c>
+      <c r="F47" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="G47" s="25">
+        <f>4000+699</f>
+        <v>4699</v>
+      </c>
       <c r="H47" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
+      <c r="A48" s="14">
+        <v>44849</v>
+      </c>
       <c r="B48" s="15">
         <f t="shared" si="1"/>
         <v>660</v>
       </c>
       <c r="C48" s="34"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="23"/>
+      <c r="D48" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E48" s="23">
+        <v>385</v>
+      </c>
       <c r="F48" s="24"/>
       <c r="G48" s="25"/>
       <c r="H48" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>385</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
+      <c r="A49" s="14">
+        <v>44850</v>
+      </c>
       <c r="B49" s="15">
         <f t="shared" si="1"/>
         <v>661</v>
       </c>
       <c r="C49" s="29"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="23"/>
+      <c r="D49" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" s="23">
+        <v>16015</v>
+      </c>
       <c r="F49" s="64"/>
       <c r="G49" s="25"/>
       <c r="H49" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16015</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
+      <c r="A50" s="14">
+        <v>44850</v>
+      </c>
       <c r="B50" s="15">
         <f t="shared" si="1"/>
         <v>662</v>
       </c>
       <c r="C50" s="29"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="23"/>
+      <c r="D50" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50" s="23">
+        <v>7052</v>
+      </c>
       <c r="F50" s="64"/>
       <c r="G50" s="25"/>
       <c r="H50" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7052</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
+      <c r="A51" s="14">
+        <v>44850</v>
+      </c>
       <c r="B51" s="15">
         <f t="shared" si="1"/>
         <v>663</v>
       </c>
       <c r="C51" s="29"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="23"/>
+      <c r="D51" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="23">
+        <v>12767</v>
+      </c>
       <c r="F51" s="24"/>
       <c r="G51" s="25"/>
       <c r="H51" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12767</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5824,16 +6023,16 @@
       <c r="D139" s="2"/>
       <c r="E139" s="45">
         <f>SUM(E4:E138)</f>
-        <v>155244</v>
+        <v>294640</v>
       </c>
       <c r="F139" s="45"/>
       <c r="G139" s="45">
         <f>SUM(G4:G138)</f>
-        <v>120319</v>
+        <v>231660</v>
       </c>
       <c r="H139" s="78">
         <f>SUM(H4:H138)</f>
-        <v>34925</v>
+        <v>62980</v>
       </c>
       <c r="I139" s="2"/>
     </row>
@@ -5877,7 +6076,7 @@
       <c r="D143" s="2"/>
       <c r="E143" s="84">
         <f>E139-G139</f>
-        <v>34925</v>
+        <v>62980</v>
       </c>
       <c r="F143" s="85"/>
       <c r="G143" s="86"/>
@@ -18310,7 +18509,7 @@
   <dimension ref="A1:I156"/>
   <sheetViews>
     <sheetView topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="G131" sqref="G131"/>
+      <selection activeCell="D136" sqref="D136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -21701,7 +21900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A131" s="26">
         <v>44836</v>
       </c>
@@ -21716,15 +21915,16 @@
       <c r="E131" s="23">
         <v>20060</v>
       </c>
-      <c r="F131" s="61">
-        <v>44843</v>
+      <c r="F131" s="63" t="s">
+        <v>99</v>
       </c>
       <c r="G131" s="62">
-        <v>19000</v>
+        <f>19000+1060</f>
+        <v>20060</v>
       </c>
       <c r="H131" s="21">
         <f t="shared" si="0"/>
-        <v>1060</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21872,11 +22072,11 @@
       <c r="F139" s="45"/>
       <c r="G139" s="45">
         <f>SUM(G4:G138)</f>
-        <v>853558</v>
+        <v>854618</v>
       </c>
       <c r="H139" s="46">
         <f>SUM(H4:H138)</f>
-        <v>1060</v>
+        <v>0</v>
       </c>
       <c r="I139" s="2"/>
     </row>
@@ -21920,7 +22120,7 @@
       <c r="D143" s="2"/>
       <c r="E143" s="84">
         <f>E139-G139</f>
-        <v>1060</v>
+        <v>0</v>
       </c>
       <c r="F143" s="85"/>
       <c r="G143" s="86"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #10  OCTUBRE 2022/CREDITOS  ABASTOS  HERRADURA   OCTUBRE  2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #10  OCTUBRE 2022/CREDITOS  ABASTOS  HERRADURA   OCTUBRE  2022.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="107">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    H E R R A D U R A </t>
   </si>
@@ -397,6 +397,21 @@
   </si>
   <si>
     <t>15-Oct-22--16-Oct-22</t>
+  </si>
+  <si>
+    <t>15-Oct-22--16-Oct-22--18-Oct-22</t>
+  </si>
+  <si>
+    <t>16-Oct-22--18-Oct-22</t>
+  </si>
+  <si>
+    <t>EVARISTO</t>
+  </si>
+  <si>
+    <t>18-Oct-22--20-Oct-22</t>
+  </si>
+  <si>
+    <t>20-Oct-22---21-Oct-22</t>
   </si>
 </sst>
 </file>
@@ -962,6 +977,7 @@
     </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="2" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -986,7 +1002,6 @@
     <xf numFmtId="166" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -2411,25 +2426,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="83"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
+      <c r="B2" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -3177,12 +3192,12 @@
       <c r="B45" s="43"/>
       <c r="C45" s="44"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="84">
+      <c r="E45" s="85">
         <f>E41-G41</f>
         <v>0</v>
       </c>
-      <c r="F45" s="85"/>
-      <c r="G45" s="86"/>
+      <c r="F45" s="86"/>
+      <c r="G45" s="87"/>
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -3198,11 +3213,11 @@
       <c r="B47" s="43"/>
       <c r="C47" s="44"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="87" t="s">
+      <c r="E47" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
+      <c r="F47" s="88"/>
+      <c r="G47" s="88"/>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -3325,10 +3340,10 @@
   <dimension ref="A1:I156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D52" sqref="D52"/>
+      <selection pane="bottomRight" activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3347,25 +3362,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="83"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
+      <c r="B2" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="4"/>
       <c r="H2" s="74"/>
       <c r="I2" s="2"/>
@@ -4258,7 +4273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
         <v>44848</v>
       </c>
@@ -4274,15 +4289,15 @@
         <v>30860</v>
       </c>
       <c r="F37" s="64" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G37" s="25">
-        <f>2248+25000</f>
-        <v>27248</v>
-      </c>
-      <c r="H37" s="88">
-        <f t="shared" si="0"/>
-        <v>3612</v>
+        <f>2248+25000+3612</f>
+        <v>30860</v>
+      </c>
+      <c r="H37" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -4363,7 +4378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A41" s="14">
         <v>44848</v>
       </c>
@@ -4378,14 +4393,19 @@
       <c r="E41" s="23">
         <v>15110</v>
       </c>
-      <c r="F41" s="24"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="76">
-        <f t="shared" si="0"/>
+      <c r="F41" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="G41" s="25">
+        <f>11800+3310</f>
         <v>15110</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H41" s="80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
         <v>44849</v>
       </c>
@@ -4400,15 +4420,16 @@
       <c r="E42" s="23">
         <v>5660</v>
       </c>
-      <c r="F42" s="24">
-        <v>44850</v>
+      <c r="F42" s="64" t="s">
+        <v>103</v>
       </c>
       <c r="G42" s="25">
-        <v>160</v>
+        <f>160+5500</f>
+        <v>5660</v>
       </c>
       <c r="H42" s="76">
         <f t="shared" si="0"/>
-        <v>5500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -4426,11 +4447,15 @@
       <c r="E43" s="23">
         <v>326</v>
       </c>
-      <c r="F43" s="64"/>
-      <c r="G43" s="25"/>
+      <c r="F43" s="64">
+        <v>44854</v>
+      </c>
+      <c r="G43" s="25">
+        <v>326</v>
+      </c>
       <c r="H43" s="76">
         <f t="shared" si="0"/>
-        <v>326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -4474,11 +4499,15 @@
       <c r="E45" s="23">
         <v>2213</v>
       </c>
-      <c r="F45" s="24"/>
-      <c r="G45" s="25"/>
+      <c r="F45" s="24">
+        <v>44855</v>
+      </c>
+      <c r="G45" s="25">
+        <v>2213</v>
+      </c>
       <c r="H45" s="76">
         <f t="shared" si="0"/>
-        <v>2213</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -4534,7 +4563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
         <v>44849</v>
       </c>
@@ -4549,11 +4578,16 @@
       <c r="E48" s="23">
         <v>385</v>
       </c>
-      <c r="F48" s="24"/>
-      <c r="G48" s="25"/>
+      <c r="F48" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="G48" s="25">
+        <f>200+185</f>
+        <v>385</v>
+      </c>
       <c r="H48" s="76">
         <f t="shared" si="0"/>
-        <v>385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -4571,11 +4605,15 @@
       <c r="E49" s="23">
         <v>16015</v>
       </c>
-      <c r="F49" s="64"/>
-      <c r="G49" s="25"/>
+      <c r="F49" s="64">
+        <v>44851</v>
+      </c>
+      <c r="G49" s="25">
+        <v>16015</v>
+      </c>
       <c r="H49" s="76">
         <f t="shared" si="0"/>
-        <v>16015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -4593,11 +4631,15 @@
       <c r="E50" s="23">
         <v>7052</v>
       </c>
-      <c r="F50" s="64"/>
-      <c r="G50" s="25"/>
+      <c r="F50" s="64">
+        <v>44851</v>
+      </c>
+      <c r="G50" s="25">
+        <v>7052</v>
+      </c>
       <c r="H50" s="76">
         <f t="shared" si="0"/>
-        <v>7052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4615,459 +4657,726 @@
       <c r="E51" s="23">
         <v>12767</v>
       </c>
-      <c r="F51" s="24"/>
-      <c r="G51" s="25"/>
+      <c r="F51" s="24">
+        <v>44852</v>
+      </c>
+      <c r="G51" s="25">
+        <v>12767</v>
+      </c>
       <c r="H51" s="76">
         <f t="shared" si="0"/>
-        <v>12767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
+      <c r="A52" s="14">
+        <v>44851</v>
+      </c>
       <c r="B52" s="15">
         <f t="shared" si="1"/>
         <v>664</v>
       </c>
       <c r="C52" s="29"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="25"/>
+      <c r="D52" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52" s="23">
+        <v>9059</v>
+      </c>
+      <c r="F52" s="24">
+        <v>44852</v>
+      </c>
+      <c r="G52" s="25">
+        <v>9059</v>
+      </c>
       <c r="H52" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
+    <row r="53" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="14">
+        <v>44852</v>
+      </c>
       <c r="B53" s="15">
         <f t="shared" si="1"/>
         <v>665</v>
       </c>
       <c r="C53" s="29"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="64"/>
-      <c r="G53" s="25"/>
+      <c r="D53" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" s="23">
+        <v>3379</v>
+      </c>
+      <c r="F53" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="G53" s="25">
+        <f>2500+879</f>
+        <v>3379</v>
+      </c>
       <c r="H53" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="14"/>
+    <row r="54" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="14">
+        <v>44852</v>
+      </c>
       <c r="B54" s="15">
         <f t="shared" si="1"/>
         <v>666</v>
       </c>
       <c r="C54" s="29"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="25"/>
+      <c r="D54" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="23">
+        <v>14719</v>
+      </c>
+      <c r="F54" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="G54" s="25">
+        <f>6500+8219</f>
+        <v>14719</v>
+      </c>
       <c r="H54" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="66"/>
+      <c r="A55" s="66">
+        <v>44852</v>
+      </c>
       <c r="B55" s="15">
         <f t="shared" si="1"/>
         <v>667</v>
       </c>
       <c r="C55" s="29"/>
-      <c r="D55" s="67"/>
-      <c r="E55" s="68"/>
-      <c r="F55" s="64"/>
-      <c r="G55" s="69"/>
+      <c r="D55" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="E55" s="68">
+        <v>5249</v>
+      </c>
+      <c r="F55" s="64">
+        <v>44855</v>
+      </c>
+      <c r="G55" s="69">
+        <v>5249</v>
+      </c>
       <c r="H55" s="77">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
+      <c r="A56" s="14">
+        <v>44852</v>
+      </c>
       <c r="B56" s="15">
         <f t="shared" si="1"/>
         <v>668</v>
       </c>
       <c r="C56" s="29"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="64"/>
-      <c r="G56" s="25"/>
+      <c r="D56" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E56" s="23">
+        <v>668</v>
+      </c>
+      <c r="F56" s="64">
+        <v>44852</v>
+      </c>
+      <c r="G56" s="25">
+        <v>668</v>
+      </c>
       <c r="H56" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
+      <c r="A57" s="14">
+        <v>44852</v>
+      </c>
       <c r="B57" s="15">
         <f t="shared" si="1"/>
         <v>669</v>
       </c>
       <c r="C57" s="29"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="25"/>
+      <c r="D57" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="E57" s="23">
+        <v>3220</v>
+      </c>
+      <c r="F57" s="24">
+        <v>44855</v>
+      </c>
+      <c r="G57" s="25">
+        <v>3220</v>
+      </c>
       <c r="H57" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
+      <c r="A58" s="14">
+        <v>44852</v>
+      </c>
       <c r="B58" s="15">
         <f t="shared" si="1"/>
         <v>670</v>
       </c>
       <c r="C58" s="29"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="25"/>
+      <c r="D58" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E58" s="23">
+        <v>8821</v>
+      </c>
+      <c r="F58" s="24">
+        <v>44853</v>
+      </c>
+      <c r="G58" s="25">
+        <v>8821</v>
+      </c>
       <c r="H58" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
+      <c r="A59" s="14">
+        <v>44853</v>
+      </c>
       <c r="B59" s="15">
         <f t="shared" si="1"/>
         <v>671</v>
       </c>
       <c r="C59" s="29"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="64"/>
-      <c r="G59" s="25"/>
+      <c r="D59" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59" s="23">
+        <v>4879</v>
+      </c>
+      <c r="F59" s="64">
+        <v>44854</v>
+      </c>
+      <c r="G59" s="25">
+        <v>4879</v>
+      </c>
       <c r="H59" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="14"/>
+      <c r="A60" s="14">
+        <v>44854</v>
+      </c>
       <c r="B60" s="15">
         <f t="shared" si="1"/>
         <v>672</v>
       </c>
       <c r="C60" s="29"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="64"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D60" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" s="23">
+        <v>2833</v>
+      </c>
+      <c r="F60" s="64">
+        <v>44855</v>
+      </c>
+      <c r="G60" s="25">
+        <v>2333</v>
+      </c>
+      <c r="H60" s="80">
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="14"/>
+      <c r="A61" s="14">
+        <v>44854</v>
+      </c>
       <c r="B61" s="15">
         <f t="shared" si="1"/>
         <v>673</v>
       </c>
       <c r="C61" s="29"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="25"/>
+      <c r="D61" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E61" s="23">
+        <v>6175</v>
+      </c>
+      <c r="F61" s="24">
+        <v>44855</v>
+      </c>
+      <c r="G61" s="25">
+        <v>6175</v>
+      </c>
       <c r="H61" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
+    <row r="62" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="14">
+        <v>44854</v>
+      </c>
       <c r="B62" s="15">
         <f t="shared" si="1"/>
         <v>674</v>
       </c>
       <c r="C62" s="29"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="64"/>
-      <c r="G62" s="25"/>
+      <c r="D62" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62" s="23">
+        <v>1568</v>
+      </c>
+      <c r="F62" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="G62" s="25">
+        <f>1200+368</f>
+        <v>1568</v>
+      </c>
       <c r="H62" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="14"/>
+    <row r="63" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="14">
+        <v>44854</v>
+      </c>
       <c r="B63" s="15">
         <f t="shared" si="1"/>
         <v>675</v>
       </c>
       <c r="C63" s="29"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="64"/>
-      <c r="G63" s="25"/>
+      <c r="D63" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E63" s="23">
+        <v>806</v>
+      </c>
+      <c r="F63" s="64">
+        <v>44856</v>
+      </c>
+      <c r="G63" s="25">
+        <v>806</v>
+      </c>
       <c r="H63" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="14"/>
+      <c r="A64" s="14">
+        <v>44855</v>
+      </c>
       <c r="B64" s="15">
         <f t="shared" si="1"/>
         <v>676</v>
       </c>
       <c r="C64" s="29"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="23"/>
+      <c r="D64" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="23">
+        <v>452</v>
+      </c>
       <c r="F64" s="24"/>
       <c r="G64" s="25"/>
       <c r="H64" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="26"/>
+        <v>452</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="26">
+        <v>44855</v>
+      </c>
       <c r="B65" s="15">
         <f t="shared" si="1"/>
         <v>677</v>
       </c>
       <c r="C65" s="29"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="64"/>
-      <c r="G65" s="25"/>
+      <c r="D65" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65" s="23">
+        <v>22430</v>
+      </c>
+      <c r="F65" s="64">
+        <v>44857</v>
+      </c>
+      <c r="G65" s="25">
+        <v>17000</v>
+      </c>
       <c r="H65" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5430</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="26"/>
+      <c r="A66" s="26">
+        <v>44855</v>
+      </c>
       <c r="B66" s="15">
         <f t="shared" si="1"/>
         <v>678</v>
       </c>
       <c r="C66" s="29"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="64"/>
-      <c r="G66" s="25"/>
+      <c r="D66" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="23">
+        <v>15779</v>
+      </c>
+      <c r="F66" s="64">
+        <v>44857</v>
+      </c>
+      <c r="G66" s="25">
+        <v>13784</v>
+      </c>
       <c r="H66" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="26"/>
+      <c r="A67" s="26">
+        <v>44855</v>
+      </c>
       <c r="B67" s="15">
         <f t="shared" si="1"/>
         <v>679</v>
       </c>
       <c r="C67" s="29"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="23"/>
-      <c r="F67" s="64"/>
-      <c r="G67" s="25"/>
+      <c r="D67" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E67" s="23">
+        <v>2800</v>
+      </c>
+      <c r="F67" s="64">
+        <v>44856</v>
+      </c>
+      <c r="G67" s="25">
+        <v>2800</v>
+      </c>
       <c r="H67" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="26"/>
+      <c r="A68" s="26">
+        <v>44855</v>
+      </c>
       <c r="B68" s="15">
         <f t="shared" si="1"/>
         <v>680</v>
       </c>
       <c r="C68" s="29"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="23"/>
-      <c r="F68" s="64"/>
-      <c r="G68" s="25"/>
+      <c r="D68" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E68" s="23">
+        <v>6963</v>
+      </c>
+      <c r="F68" s="64">
+        <v>44856</v>
+      </c>
+      <c r="G68" s="25">
+        <v>6963</v>
+      </c>
       <c r="H68" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="26"/>
+      <c r="A69" s="26">
+        <v>44855</v>
+      </c>
       <c r="B69" s="15">
         <f t="shared" si="1"/>
         <v>681</v>
       </c>
       <c r="C69" s="29"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="23"/>
-      <c r="F69" s="64"/>
-      <c r="G69" s="25"/>
+      <c r="D69" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E69" s="23">
+        <v>5624</v>
+      </c>
+      <c r="F69" s="64">
+        <v>44857</v>
+      </c>
+      <c r="G69" s="25">
+        <v>5624</v>
+      </c>
       <c r="H69" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="26"/>
+      <c r="A70" s="26">
+        <v>44855</v>
+      </c>
       <c r="B70" s="15">
         <f t="shared" ref="B70:B133" si="2">B69+1</f>
         <v>682</v>
       </c>
       <c r="C70" s="29"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="23"/>
-      <c r="F70" s="24"/>
-      <c r="G70" s="25"/>
+      <c r="D70" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E70" s="23">
+        <v>2844</v>
+      </c>
+      <c r="F70" s="24">
+        <v>44857</v>
+      </c>
+      <c r="G70" s="25">
+        <v>2844</v>
+      </c>
       <c r="H70" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="26"/>
+      <c r="A71" s="26">
+        <v>44855</v>
+      </c>
       <c r="B71" s="15">
         <f t="shared" si="2"/>
         <v>683</v>
       </c>
       <c r="C71" s="29"/>
-      <c r="D71" s="27"/>
-      <c r="E71" s="23"/>
-      <c r="F71" s="64"/>
-      <c r="G71" s="25"/>
+      <c r="D71" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E71" s="23">
+        <v>2443</v>
+      </c>
+      <c r="F71" s="64">
+        <v>44856</v>
+      </c>
+      <c r="G71" s="25">
+        <v>2443</v>
+      </c>
       <c r="H71" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="26"/>
+      <c r="A72" s="26">
+        <v>44856</v>
+      </c>
       <c r="B72" s="15">
         <f t="shared" si="2"/>
         <v>684</v>
       </c>
       <c r="C72" s="29"/>
-      <c r="D72" s="27"/>
-      <c r="E72" s="23"/>
+      <c r="D72" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E72" s="23">
+        <v>2209</v>
+      </c>
       <c r="F72" s="24"/>
       <c r="G72" s="25"/>
       <c r="H72" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="26"/>
+      <c r="A73" s="26">
+        <v>44856</v>
+      </c>
       <c r="B73" s="15">
         <f t="shared" si="2"/>
         <v>685</v>
       </c>
       <c r="C73" s="29"/>
-      <c r="D73" s="27"/>
-      <c r="E73" s="23"/>
-      <c r="F73" s="24"/>
-      <c r="G73" s="25"/>
+      <c r="D73" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E73" s="23">
+        <v>8147</v>
+      </c>
+      <c r="F73" s="24">
+        <v>44857</v>
+      </c>
+      <c r="G73" s="25">
+        <v>8147</v>
+      </c>
       <c r="H73" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="26"/>
+      <c r="A74" s="26">
+        <v>44856</v>
+      </c>
       <c r="B74" s="15">
         <f t="shared" si="2"/>
         <v>686</v>
       </c>
       <c r="C74" s="29"/>
-      <c r="D74" s="27"/>
-      <c r="E74" s="23"/>
-      <c r="F74" s="24"/>
-      <c r="G74" s="25"/>
+      <c r="D74" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E74" s="23">
+        <v>4884</v>
+      </c>
+      <c r="F74" s="24">
+        <v>44856</v>
+      </c>
+      <c r="G74" s="25">
+        <v>4200</v>
+      </c>
       <c r="H74" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>684</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="26"/>
+      <c r="A75" s="26">
+        <v>44856</v>
+      </c>
       <c r="B75" s="15">
         <f t="shared" si="2"/>
         <v>687</v>
       </c>
       <c r="C75" s="29"/>
-      <c r="D75" s="27"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="24"/>
-      <c r="G75" s="25"/>
+      <c r="D75" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E75" s="23">
+        <v>2409</v>
+      </c>
+      <c r="F75" s="24">
+        <v>44857</v>
+      </c>
+      <c r="G75" s="25">
+        <v>2409</v>
+      </c>
       <c r="H75" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="26"/>
+      <c r="A76" s="26">
+        <v>44857</v>
+      </c>
       <c r="B76" s="15">
         <f t="shared" si="2"/>
         <v>688</v>
       </c>
       <c r="C76" s="29"/>
-      <c r="D76" s="27"/>
-      <c r="E76" s="23"/>
+      <c r="D76" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E76" s="23">
+        <v>1975</v>
+      </c>
       <c r="F76" s="64"/>
       <c r="G76" s="25"/>
       <c r="H76" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="26"/>
+      <c r="A77" s="26">
+        <v>44857</v>
+      </c>
       <c r="B77" s="15">
         <f t="shared" si="2"/>
         <v>689</v>
       </c>
       <c r="C77" s="29"/>
-      <c r="D77" s="27"/>
-      <c r="E77" s="23"/>
+      <c r="D77" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" s="23">
+        <v>15500</v>
+      </c>
       <c r="F77" s="64"/>
       <c r="G77" s="25"/>
       <c r="H77" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15500</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="26"/>
+      <c r="A78" s="26">
+        <v>44857</v>
+      </c>
       <c r="B78" s="15">
         <f t="shared" si="2"/>
         <v>690</v>
       </c>
       <c r="C78" s="29"/>
-      <c r="D78" s="27"/>
-      <c r="E78" s="23"/>
-      <c r="F78" s="64"/>
-      <c r="G78" s="25"/>
+      <c r="D78" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E78" s="23">
+        <v>25671</v>
+      </c>
+      <c r="F78" s="64">
+        <v>44857</v>
+      </c>
+      <c r="G78" s="25">
+        <v>20000</v>
+      </c>
       <c r="H78" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5671</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="26"/>
+      <c r="A79" s="26">
+        <v>44857</v>
+      </c>
       <c r="B79" s="15">
         <f t="shared" si="2"/>
         <v>691</v>
       </c>
       <c r="C79" s="29"/>
-      <c r="D79" s="27"/>
-      <c r="E79" s="23"/>
+      <c r="D79" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="E79" s="23">
+        <v>6898</v>
+      </c>
       <c r="F79" s="64"/>
       <c r="G79" s="25"/>
       <c r="H79" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6898</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6023,16 +6332,16 @@
       <c r="D139" s="2"/>
       <c r="E139" s="45">
         <f>SUM(E4:E138)</f>
-        <v>294640</v>
+        <v>483044</v>
       </c>
       <c r="F139" s="45"/>
       <c r="G139" s="45">
         <f>SUM(G4:G138)</f>
-        <v>231660</v>
+        <v>441730</v>
       </c>
       <c r="H139" s="78">
         <f>SUM(H4:H138)</f>
-        <v>62980</v>
+        <v>41314</v>
       </c>
       <c r="I139" s="2"/>
     </row>
@@ -6074,12 +6383,12 @@
       <c r="B143" s="43"/>
       <c r="C143" s="44"/>
       <c r="D143" s="2"/>
-      <c r="E143" s="84">
+      <c r="E143" s="85">
         <f>E139-G139</f>
-        <v>62980</v>
-      </c>
-      <c r="F143" s="85"/>
-      <c r="G143" s="86"/>
+        <v>41314</v>
+      </c>
+      <c r="F143" s="86"/>
+      <c r="G143" s="87"/>
       <c r="I143" s="2"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
@@ -6095,11 +6404,11 @@
       <c r="B145" s="43"/>
       <c r="C145" s="44"/>
       <c r="D145" s="2"/>
-      <c r="E145" s="87" t="s">
+      <c r="E145" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="F145" s="87"/>
-      <c r="G145" s="87"/>
+      <c r="F145" s="88"/>
+      <c r="G145" s="88"/>
       <c r="I145" s="2"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
@@ -6267,25 +6576,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="83"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
+      <c r="B2" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -7310,12 +7619,12 @@
       <c r="B55" s="43"/>
       <c r="C55" s="44"/>
       <c r="D55" s="2"/>
-      <c r="E55" s="84">
+      <c r="E55" s="85">
         <f>E51-G51</f>
         <v>0</v>
       </c>
-      <c r="F55" s="85"/>
-      <c r="G55" s="86"/>
+      <c r="F55" s="86"/>
+      <c r="G55" s="87"/>
       <c r="I55" s="2"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -7331,11 +7640,11 @@
       <c r="B57" s="43"/>
       <c r="C57" s="44"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="87" t="s">
+      <c r="E57" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="F57" s="87"/>
-      <c r="G57" s="87"/>
+      <c r="F57" s="88"/>
+      <c r="G57" s="88"/>
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -7477,25 +7786,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="83"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
+      <c r="B2" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -8442,12 +8751,12 @@
       <c r="B52" s="43"/>
       <c r="C52" s="44"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="84">
+      <c r="E52" s="85">
         <f>E48-G48</f>
         <v>0</v>
       </c>
-      <c r="F52" s="85"/>
-      <c r="G52" s="86"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="87"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -8463,11 +8772,11 @@
       <c r="B54" s="43"/>
       <c r="C54" s="44"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="87" t="s">
+      <c r="E54" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="F54" s="87"/>
-      <c r="G54" s="87"/>
+      <c r="F54" s="88"/>
+      <c r="G54" s="88"/>
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -8609,25 +8918,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="83"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
+      <c r="B2" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -9943,12 +10252,12 @@
       <c r="B63" s="43"/>
       <c r="C63" s="44"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="84">
+      <c r="E63" s="85">
         <f>E59-G59</f>
         <v>0</v>
       </c>
-      <c r="F63" s="85"/>
-      <c r="G63" s="86"/>
+      <c r="F63" s="86"/>
+      <c r="G63" s="87"/>
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -9964,11 +10273,11 @@
       <c r="B65" s="43"/>
       <c r="C65" s="44"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="87" t="s">
+      <c r="E65" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="F65" s="87"/>
-      <c r="G65" s="87"/>
+      <c r="F65" s="88"/>
+      <c r="G65" s="88"/>
       <c r="I65" s="2"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -10110,25 +10419,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="83"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
+      <c r="B2" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -11462,12 +11771,12 @@
       <c r="B57" s="43"/>
       <c r="C57" s="44"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="84">
+      <c r="E57" s="85">
         <f>E53-G53</f>
         <v>0</v>
       </c>
-      <c r="F57" s="85"/>
-      <c r="G57" s="86"/>
+      <c r="F57" s="86"/>
+      <c r="G57" s="87"/>
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -11483,11 +11792,11 @@
       <c r="B59" s="43"/>
       <c r="C59" s="44"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="87" t="s">
+      <c r="E59" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="F59" s="87"/>
-      <c r="G59" s="87"/>
+      <c r="F59" s="88"/>
+      <c r="G59" s="88"/>
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -11630,25 +11939,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="83"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
+      <c r="B2" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -13441,12 +13750,12 @@
       <c r="B76" s="43"/>
       <c r="C76" s="44"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="84">
+      <c r="E76" s="85">
         <f>E72-G72</f>
         <v>0</v>
       </c>
-      <c r="F76" s="85"/>
-      <c r="G76" s="86"/>
+      <c r="F76" s="86"/>
+      <c r="G76" s="87"/>
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -13462,11 +13771,11 @@
       <c r="B78" s="43"/>
       <c r="C78" s="44"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="87" t="s">
+      <c r="E78" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="F78" s="87"/>
-      <c r="G78" s="87"/>
+      <c r="F78" s="88"/>
+      <c r="G78" s="88"/>
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -13608,25 +13917,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="83"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
+      <c r="B2" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -15746,12 +16055,12 @@
       <c r="B87" s="43"/>
       <c r="C87" s="44"/>
       <c r="D87" s="2"/>
-      <c r="E87" s="84">
+      <c r="E87" s="85">
         <f>E83-G83</f>
         <v>0</v>
       </c>
-      <c r="F87" s="85"/>
-      <c r="G87" s="86"/>
+      <c r="F87" s="86"/>
+      <c r="G87" s="87"/>
       <c r="I87" s="2"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -15767,11 +16076,11 @@
       <c r="B89" s="43"/>
       <c r="C89" s="44"/>
       <c r="D89" s="2"/>
-      <c r="E89" s="87" t="s">
+      <c r="E89" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="F89" s="87"/>
-      <c r="G89" s="87"/>
+      <c r="F89" s="88"/>
+      <c r="G89" s="88"/>
       <c r="I89" s="2"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -15917,25 +16226,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="83"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
+      <c r="B2" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -18360,12 +18669,12 @@
       <c r="B98" s="43"/>
       <c r="C98" s="44"/>
       <c r="D98" s="2"/>
-      <c r="E98" s="84">
+      <c r="E98" s="85">
         <f>E94-G94</f>
         <v>0</v>
       </c>
-      <c r="F98" s="85"/>
-      <c r="G98" s="86"/>
+      <c r="F98" s="86"/>
+      <c r="G98" s="87"/>
       <c r="I98" s="2"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -18381,11 +18690,11 @@
       <c r="B100" s="43"/>
       <c r="C100" s="44"/>
       <c r="D100" s="2"/>
-      <c r="E100" s="87" t="s">
+      <c r="E100" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="F100" s="87"/>
-      <c r="G100" s="87"/>
+      <c r="F100" s="88"/>
+      <c r="G100" s="88"/>
       <c r="I100" s="2"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -18528,25 +18837,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="83"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
+      <c r="B2" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -22118,12 +22427,12 @@
       <c r="B143" s="43"/>
       <c r="C143" s="44"/>
       <c r="D143" s="2"/>
-      <c r="E143" s="84">
+      <c r="E143" s="85">
         <f>E139-G139</f>
         <v>0</v>
       </c>
-      <c r="F143" s="85"/>
-      <c r="G143" s="86"/>
+      <c r="F143" s="86"/>
+      <c r="G143" s="87"/>
       <c r="I143" s="2"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
@@ -22139,11 +22448,11 @@
       <c r="B145" s="43"/>
       <c r="C145" s="44"/>
       <c r="D145" s="2"/>
-      <c r="E145" s="87" t="s">
+      <c r="E145" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="F145" s="87"/>
-      <c r="G145" s="87"/>
+      <c r="F145" s="88"/>
+      <c r="G145" s="88"/>
       <c r="I145" s="2"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #10  OCTUBRE 2022/CREDITOS  ABASTOS  HERRADURA   OCTUBRE  2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #10  OCTUBRE 2022/CREDITOS  ABASTOS  HERRADURA   OCTUBRE  2022.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="115">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    H E R R A D U R A </t>
   </si>
@@ -412,6 +412,30 @@
   </si>
   <si>
     <t>20-Oct-22---21-Oct-22</t>
+  </si>
+  <si>
+    <t>21-Oct-22--25-Oct-22</t>
+  </si>
+  <si>
+    <t>23-Oct-22--25-Oct-22</t>
+  </si>
+  <si>
+    <t>22-Oct-22--27-Oct-22</t>
+  </si>
+  <si>
+    <t>27-Oct-22--28-Oct-22</t>
+  </si>
+  <si>
+    <t>25-Oct-22--28-Oct-22--29-Oct-22</t>
+  </si>
+  <si>
+    <t>28-Oct-22--29-Oct-22</t>
+  </si>
+  <si>
+    <t>23-Oct-22--30-Oct-22</t>
+  </si>
+  <si>
+    <t>29-Oct-22--30-Oct-22</t>
   </si>
 </sst>
 </file>
@@ -800,7 +824,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -977,7 +1001,6 @@
     </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="2" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1145,13 +1168,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>647703</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>152402</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1198,13 +1221,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>561977</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>123829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>161927</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2426,25 +2449,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="83"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="82"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
+      <c r="B2" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -3192,12 +3215,12 @@
       <c r="B45" s="43"/>
       <c r="C45" s="44"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="85">
+      <c r="E45" s="84">
         <f>E41-G41</f>
         <v>0</v>
       </c>
-      <c r="F45" s="86"/>
-      <c r="G45" s="87"/>
+      <c r="F45" s="85"/>
+      <c r="G45" s="86"/>
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -3213,11 +3236,11 @@
       <c r="B47" s="43"/>
       <c r="C47" s="44"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="88" t="s">
+      <c r="E47" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="F47" s="88"/>
-      <c r="G47" s="88"/>
+      <c r="F47" s="87"/>
+      <c r="G47" s="87"/>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -3337,13 +3360,13 @@
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:I156"/>
+  <dimension ref="A1:I120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B88" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G79" sqref="G79"/>
+      <selection pane="bottomRight" activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3362,25 +3385,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="83"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="82"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
+      <c r="B2" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="74"/>
       <c r="I2" s="2"/>
@@ -3432,7 +3455,7 @@
         <v>3040</v>
       </c>
       <c r="H4" s="76">
-        <f t="shared" ref="H4:H138" si="0">E4-G4</f>
+        <f t="shared" ref="H4:H102" si="0">E4-G4</f>
         <v>0</v>
       </c>
       <c r="I4" s="2"/>
@@ -4400,7 +4423,7 @@
         <f>11800+3310</f>
         <v>15110</v>
       </c>
-      <c r="H41" s="80">
+      <c r="H41" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4852,7 +4875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="14">
         <v>44853</v>
       </c>
@@ -4878,7 +4901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A60" s="14">
         <v>44854</v>
       </c>
@@ -4893,15 +4916,16 @@
       <c r="E60" s="23">
         <v>2833</v>
       </c>
-      <c r="F60" s="64">
-        <v>44855</v>
+      <c r="F60" s="64" t="s">
+        <v>107</v>
       </c>
       <c r="G60" s="25">
-        <v>2333</v>
-      </c>
-      <c r="H60" s="80">
-        <f t="shared" si="0"/>
-        <v>500</v>
+        <f>2333+500</f>
+        <v>2833</v>
+      </c>
+      <c r="H60" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4998,11 +5022,15 @@
       <c r="E64" s="23">
         <v>452</v>
       </c>
-      <c r="F64" s="24"/>
-      <c r="G64" s="25"/>
+      <c r="F64" s="24">
+        <v>44864</v>
+      </c>
+      <c r="G64" s="25">
+        <v>452</v>
+      </c>
       <c r="H64" s="76">
         <f t="shared" si="0"/>
-        <v>452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5020,18 +5048,19 @@
       <c r="E65" s="23">
         <v>22430</v>
       </c>
-      <c r="F65" s="64">
-        <v>44857</v>
+      <c r="F65" s="64" t="s">
+        <v>113</v>
       </c>
       <c r="G65" s="25">
-        <v>17000</v>
+        <f>17000+5430</f>
+        <v>22430</v>
       </c>
       <c r="H65" s="76">
         <f t="shared" si="0"/>
-        <v>5430</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A66" s="26">
         <v>44855</v>
       </c>
@@ -5046,15 +5075,16 @@
       <c r="E66" s="23">
         <v>15779</v>
       </c>
-      <c r="F66" s="64">
-        <v>44857</v>
+      <c r="F66" s="64" t="s">
+        <v>108</v>
       </c>
       <c r="G66" s="25">
-        <v>13784</v>
+        <f>13784+1995</f>
+        <v>15779</v>
       </c>
       <c r="H66" s="76">
         <f t="shared" si="0"/>
-        <v>1995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -5140,7 +5170,7 @@
         <v>44855</v>
       </c>
       <c r="B70" s="15">
-        <f t="shared" ref="B70:B133" si="2">B69+1</f>
+        <f t="shared" ref="B70:B100" si="2">B69+1</f>
         <v>682</v>
       </c>
       <c r="C70" s="29"/>
@@ -5202,11 +5232,15 @@
       <c r="E72" s="23">
         <v>2209</v>
       </c>
-      <c r="F72" s="24"/>
-      <c r="G72" s="25"/>
+      <c r="F72" s="24">
+        <v>44859</v>
+      </c>
+      <c r="G72" s="25">
+        <v>2209</v>
+      </c>
       <c r="H72" s="76">
         <f t="shared" si="0"/>
-        <v>2209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5235,7 +5269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A74" s="26">
         <v>44856</v>
       </c>
@@ -5250,15 +5284,16 @@
       <c r="E74" s="23">
         <v>4884</v>
       </c>
-      <c r="F74" s="24">
-        <v>44856</v>
+      <c r="F74" s="64" t="s">
+        <v>109</v>
       </c>
       <c r="G74" s="25">
-        <v>4200</v>
+        <f>4200+684</f>
+        <v>4884</v>
       </c>
       <c r="H74" s="76">
         <f t="shared" si="0"/>
-        <v>684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5302,14 +5337,18 @@
       <c r="E76" s="23">
         <v>1975</v>
       </c>
-      <c r="F76" s="64"/>
-      <c r="G76" s="25"/>
+      <c r="F76" s="64">
+        <v>44861</v>
+      </c>
+      <c r="G76" s="25">
+        <v>1975</v>
+      </c>
       <c r="H76" s="76">
         <f t="shared" si="0"/>
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A77" s="26">
         <v>44857</v>
       </c>
@@ -5324,14 +5363,19 @@
       <c r="E77" s="23">
         <v>15500</v>
       </c>
-      <c r="F77" s="64"/>
-      <c r="G77" s="25"/>
+      <c r="F77" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="G77" s="25">
+        <f>5000+6000+4500</f>
+        <v>15500</v>
+      </c>
       <c r="H77" s="76">
         <f t="shared" si="0"/>
-        <v>15500</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A78" s="26">
         <v>44857</v>
       </c>
@@ -5346,15 +5390,16 @@
       <c r="E78" s="23">
         <v>25671</v>
       </c>
-      <c r="F78" s="64">
-        <v>44857</v>
+      <c r="F78" s="64" t="s">
+        <v>108</v>
       </c>
       <c r="G78" s="25">
-        <v>20000</v>
+        <f>20000+5671</f>
+        <v>25671</v>
       </c>
       <c r="H78" s="76">
         <f t="shared" si="0"/>
-        <v>5671</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -5372,355 +5417,549 @@
       <c r="E79" s="23">
         <v>6898</v>
       </c>
-      <c r="F79" s="64"/>
-      <c r="G79" s="25"/>
+      <c r="F79" s="64">
+        <v>44859</v>
+      </c>
+      <c r="G79" s="25">
+        <v>6898</v>
+      </c>
       <c r="H79" s="76">
         <f t="shared" si="0"/>
-        <v>6898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="26"/>
+      <c r="A80" s="26">
+        <v>44858</v>
+      </c>
       <c r="B80" s="15">
         <f t="shared" si="2"/>
         <v>692</v>
       </c>
       <c r="C80" s="29"/>
-      <c r="D80" s="27"/>
-      <c r="E80" s="23"/>
-      <c r="F80" s="24"/>
-      <c r="G80" s="25"/>
+      <c r="D80" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" s="23">
+        <v>2991</v>
+      </c>
+      <c r="F80" s="24">
+        <v>44860</v>
+      </c>
+      <c r="G80" s="25">
+        <v>2991</v>
+      </c>
       <c r="H80" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="26"/>
+      <c r="A81" s="26">
+        <v>44858</v>
+      </c>
       <c r="B81" s="15">
         <f t="shared" si="2"/>
         <v>693</v>
       </c>
       <c r="C81" s="29"/>
-      <c r="D81" s="27"/>
-      <c r="E81" s="23"/>
-      <c r="F81" s="64"/>
-      <c r="G81" s="25"/>
+      <c r="D81" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E81" s="23">
+        <v>6042</v>
+      </c>
+      <c r="F81" s="64">
+        <v>44859</v>
+      </c>
+      <c r="G81" s="25">
+        <v>6042</v>
+      </c>
       <c r="H81" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="26"/>
+      <c r="A82" s="26">
+        <v>44858</v>
+      </c>
       <c r="B82" s="15">
         <f t="shared" si="2"/>
         <v>694</v>
       </c>
       <c r="C82" s="29"/>
-      <c r="D82" s="27"/>
-      <c r="E82" s="23"/>
-      <c r="F82" s="24"/>
-      <c r="G82" s="25"/>
+      <c r="D82" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E82" s="23">
+        <v>10436</v>
+      </c>
+      <c r="F82" s="24">
+        <v>44858</v>
+      </c>
+      <c r="G82" s="25">
+        <v>10436</v>
+      </c>
       <c r="H82" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="26"/>
+      <c r="A83" s="26">
+        <v>44859</v>
+      </c>
       <c r="B83" s="15">
         <f t="shared" si="2"/>
         <v>695</v>
       </c>
       <c r="C83" s="29"/>
-      <c r="D83" s="27"/>
-      <c r="E83" s="23"/>
-      <c r="F83" s="64"/>
-      <c r="G83" s="25"/>
+      <c r="D83" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="E83" s="23">
+        <v>6743</v>
+      </c>
+      <c r="F83" s="64">
+        <v>44861</v>
+      </c>
+      <c r="G83" s="25">
+        <v>6743</v>
+      </c>
       <c r="H83" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="26"/>
+      <c r="A84" s="26">
+        <v>44859</v>
+      </c>
       <c r="B84" s="15">
         <f t="shared" si="2"/>
         <v>696</v>
       </c>
       <c r="C84" s="29"/>
-      <c r="D84" s="27"/>
-      <c r="E84" s="23"/>
-      <c r="F84" s="24"/>
-      <c r="G84" s="25"/>
+      <c r="D84" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E84" s="23">
+        <v>2925</v>
+      </c>
+      <c r="F84" s="24">
+        <v>44862</v>
+      </c>
+      <c r="G84" s="25">
+        <v>2925</v>
+      </c>
       <c r="H84" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="26"/>
+    <row r="85" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A85" s="26">
+        <v>44859</v>
+      </c>
       <c r="B85" s="15">
         <f t="shared" si="2"/>
         <v>697</v>
       </c>
       <c r="C85" s="29"/>
-      <c r="D85" s="27"/>
-      <c r="E85" s="23"/>
-      <c r="F85" s="24"/>
-      <c r="G85" s="25"/>
+      <c r="D85" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" s="23">
+        <v>15159</v>
+      </c>
+      <c r="F85" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="G85" s="25">
+        <f>2000+13159</f>
+        <v>15159</v>
+      </c>
       <c r="H85" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="26"/>
+      <c r="A86" s="26">
+        <v>44860</v>
+      </c>
       <c r="B86" s="15">
         <f t="shared" si="2"/>
         <v>698</v>
       </c>
       <c r="C86" s="29"/>
-      <c r="D86" s="27"/>
-      <c r="E86" s="23"/>
-      <c r="F86" s="24"/>
-      <c r="G86" s="25"/>
+      <c r="D86" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E86" s="23">
+        <v>703</v>
+      </c>
+      <c r="F86" s="24">
+        <v>44862</v>
+      </c>
+      <c r="G86" s="25">
+        <v>703</v>
+      </c>
       <c r="H86" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="26"/>
+      <c r="A87" s="26">
+        <v>44861</v>
+      </c>
       <c r="B87" s="15">
         <f t="shared" si="2"/>
         <v>699</v>
       </c>
       <c r="C87" s="29"/>
-      <c r="D87" s="27"/>
-      <c r="E87" s="23"/>
-      <c r="F87" s="24"/>
-      <c r="G87" s="25"/>
+      <c r="D87" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E87" s="23">
+        <v>2660</v>
+      </c>
+      <c r="F87" s="24">
+        <v>44863</v>
+      </c>
+      <c r="G87" s="25">
+        <v>2660</v>
+      </c>
       <c r="H87" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="26"/>
+      <c r="A88" s="26">
+        <v>44861</v>
+      </c>
       <c r="B88" s="15">
         <f t="shared" si="2"/>
         <v>700</v>
       </c>
       <c r="C88" s="29"/>
-      <c r="D88" s="27"/>
-      <c r="E88" s="23"/>
-      <c r="F88" s="24"/>
-      <c r="G88" s="25"/>
+      <c r="D88" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E88" s="23">
+        <v>6734</v>
+      </c>
+      <c r="F88" s="61"/>
+      <c r="G88" s="62"/>
       <c r="H88" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="26"/>
+        <v>6734</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A89" s="26">
+        <v>44861</v>
+      </c>
       <c r="B89" s="15">
         <f t="shared" si="2"/>
         <v>701</v>
       </c>
       <c r="C89" s="29"/>
-      <c r="D89" s="27"/>
-      <c r="E89" s="23"/>
-      <c r="F89" s="24"/>
-      <c r="G89" s="25"/>
+      <c r="D89" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89" s="23">
+        <v>2318</v>
+      </c>
+      <c r="F89" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="G89" s="25">
+        <f>1818+500</f>
+        <v>2318</v>
+      </c>
       <c r="H89" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="26"/>
+      <c r="A90" s="26">
+        <v>44862</v>
+      </c>
       <c r="B90" s="15">
         <f t="shared" si="2"/>
         <v>702</v>
       </c>
       <c r="C90" s="29"/>
-      <c r="D90" s="27"/>
-      <c r="E90" s="23"/>
-      <c r="F90" s="24"/>
-      <c r="G90" s="25"/>
+      <c r="D90" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E90" s="23">
+        <v>1885</v>
+      </c>
+      <c r="F90" s="61">
+        <v>44863</v>
+      </c>
+      <c r="G90" s="62">
+        <v>1000</v>
+      </c>
       <c r="H90" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>885</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="26"/>
+      <c r="A91" s="26">
+        <v>44862</v>
+      </c>
       <c r="B91" s="15">
         <f t="shared" si="2"/>
         <v>703</v>
       </c>
       <c r="C91" s="29"/>
-      <c r="D91" s="27"/>
-      <c r="E91" s="23"/>
-      <c r="F91" s="64"/>
-      <c r="G91" s="25"/>
+      <c r="D91" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E91" s="23">
+        <v>2133</v>
+      </c>
+      <c r="F91" s="64">
+        <v>44863</v>
+      </c>
+      <c r="G91" s="25">
+        <v>1833</v>
+      </c>
       <c r="H91" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="26"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A92" s="26">
+        <v>44862</v>
+      </c>
       <c r="B92" s="15">
         <f t="shared" si="2"/>
         <v>704</v>
       </c>
       <c r="C92" s="29"/>
-      <c r="D92" s="27"/>
-      <c r="E92" s="23"/>
-      <c r="F92" s="24"/>
-      <c r="G92" s="25"/>
+      <c r="D92" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E92" s="23">
+        <v>3364</v>
+      </c>
+      <c r="F92" s="64" t="s">
+        <v>112</v>
+      </c>
+      <c r="G92" s="25">
+        <f>2364+1000</f>
+        <v>3364</v>
+      </c>
       <c r="H92" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="26"/>
+      <c r="A93" s="26">
+        <v>44863</v>
+      </c>
       <c r="B93" s="15">
         <f t="shared" si="2"/>
         <v>705</v>
       </c>
       <c r="C93" s="29"/>
-      <c r="D93" s="27"/>
-      <c r="E93" s="23"/>
-      <c r="F93" s="64"/>
-      <c r="G93" s="25"/>
+      <c r="D93" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E93" s="23">
+        <v>4401</v>
+      </c>
+      <c r="F93" s="63"/>
+      <c r="G93" s="62"/>
       <c r="H93" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4401</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="26"/>
+      <c r="A94" s="26">
+        <v>44863</v>
+      </c>
       <c r="B94" s="15">
         <f t="shared" si="2"/>
         <v>706</v>
       </c>
       <c r="C94" s="29"/>
-      <c r="D94" s="27"/>
-      <c r="E94" s="23"/>
-      <c r="F94" s="24"/>
-      <c r="G94" s="25"/>
+      <c r="D94" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E94" s="23">
+        <v>11970</v>
+      </c>
+      <c r="F94" s="24">
+        <v>44864</v>
+      </c>
+      <c r="G94" s="25">
+        <v>10000</v>
+      </c>
       <c r="H94" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="26"/>
+      <c r="A95" s="26">
+        <v>44863</v>
+      </c>
       <c r="B95" s="15">
         <f t="shared" si="2"/>
         <v>707</v>
       </c>
       <c r="C95" s="29"/>
-      <c r="D95" s="27"/>
-      <c r="E95" s="23"/>
-      <c r="F95" s="24"/>
-      <c r="G95" s="25"/>
+      <c r="D95" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95" s="23">
+        <v>15306</v>
+      </c>
+      <c r="F95" s="61"/>
+      <c r="G95" s="62"/>
       <c r="H95" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15306</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="26"/>
+      <c r="A96" s="26">
+        <v>44863</v>
+      </c>
       <c r="B96" s="15">
         <f t="shared" si="2"/>
         <v>708</v>
       </c>
       <c r="C96" s="29"/>
-      <c r="D96" s="27"/>
-      <c r="E96" s="23"/>
-      <c r="F96" s="24"/>
-      <c r="G96" s="25"/>
+      <c r="D96" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E96" s="23">
+        <v>578</v>
+      </c>
+      <c r="F96" s="24">
+        <v>44864</v>
+      </c>
+      <c r="G96" s="25">
+        <v>578</v>
+      </c>
       <c r="H96" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="26"/>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="26">
+        <v>44863</v>
+      </c>
       <c r="B97" s="15">
         <f t="shared" si="2"/>
         <v>709</v>
       </c>
       <c r="C97" s="29"/>
-      <c r="D97" s="27"/>
-      <c r="E97" s="23"/>
-      <c r="F97" s="64"/>
-      <c r="G97" s="25"/>
+      <c r="D97" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E97" s="23">
+        <v>5278</v>
+      </c>
+      <c r="F97" s="64">
+        <v>44863</v>
+      </c>
+      <c r="G97" s="25">
+        <v>3778</v>
+      </c>
       <c r="H97" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="26"/>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="26">
+        <v>44863</v>
+      </c>
       <c r="B98" s="15">
         <f t="shared" si="2"/>
         <v>710</v>
       </c>
       <c r="C98" s="29"/>
-      <c r="D98" s="27"/>
-      <c r="E98" s="23"/>
-      <c r="F98" s="64"/>
-      <c r="G98" s="25"/>
+      <c r="D98" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E98" s="23">
+        <v>11430</v>
+      </c>
+      <c r="F98" s="64">
+        <v>44864</v>
+      </c>
+      <c r="G98" s="25">
+        <v>11430</v>
+      </c>
       <c r="H98" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="26"/>
+    <row r="99" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="26">
+        <v>44864</v>
+      </c>
       <c r="B99" s="15">
         <f t="shared" si="2"/>
         <v>711</v>
       </c>
       <c r="C99" s="29"/>
-      <c r="D99" s="27"/>
-      <c r="E99" s="23"/>
-      <c r="F99" s="24"/>
-      <c r="G99" s="25"/>
+      <c r="D99" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E99" s="23">
+        <v>9430</v>
+      </c>
+      <c r="F99" s="61"/>
+      <c r="G99" s="62"/>
       <c r="H99" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="26"/>
+        <v>9430</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="26">
+        <v>44864</v>
+      </c>
       <c r="B100" s="15">
         <f t="shared" si="2"/>
         <v>712</v>
       </c>
       <c r="C100" s="29"/>
-      <c r="D100" s="27"/>
-      <c r="E100" s="23"/>
-      <c r="F100" s="24"/>
-      <c r="G100" s="25"/>
+      <c r="D100" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E100" s="23">
+        <v>15000</v>
+      </c>
+      <c r="F100" s="61"/>
+      <c r="G100" s="62"/>
       <c r="H100" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="26"/>
-      <c r="B101" s="15">
-        <f t="shared" si="2"/>
-        <v>713</v>
-      </c>
+      <c r="B101" s="15"/>
       <c r="C101" s="29"/>
       <c r="D101" s="27"/>
       <c r="E101" s="23"/>
@@ -5731,792 +5970,213 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="26"/>
-      <c r="B102" s="15">
-        <f t="shared" si="2"/>
-        <v>714</v>
-      </c>
-      <c r="C102" s="29"/>
-      <c r="D102" s="27"/>
-      <c r="E102" s="23"/>
-      <c r="F102" s="24"/>
-      <c r="G102" s="25"/>
+    <row r="102" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="35"/>
+      <c r="B102" s="15"/>
+      <c r="C102" s="37"/>
+      <c r="D102" s="38"/>
+      <c r="E102" s="39">
+        <v>0</v>
+      </c>
+      <c r="F102" s="40"/>
+      <c r="G102" s="41"/>
       <c r="H102" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="26"/>
-      <c r="B103" s="15">
-        <f t="shared" si="2"/>
-        <v>715</v>
-      </c>
-      <c r="C103" s="29"/>
-      <c r="D103" s="27"/>
-      <c r="E103" s="23"/>
-      <c r="F103" s="24"/>
-      <c r="G103" s="25"/>
-      <c r="H103" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="26"/>
-      <c r="B104" s="15">
-        <f t="shared" si="2"/>
-        <v>716</v>
-      </c>
-      <c r="C104" s="29"/>
-      <c r="D104" s="27"/>
-      <c r="E104" s="23"/>
-      <c r="F104" s="64"/>
-      <c r="G104" s="25"/>
-      <c r="H104" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="26"/>
-      <c r="B105" s="15">
-        <f t="shared" si="2"/>
-        <v>717</v>
-      </c>
-      <c r="C105" s="29"/>
-      <c r="D105" s="27"/>
-      <c r="E105" s="23"/>
-      <c r="F105" s="24"/>
-      <c r="G105" s="25"/>
-      <c r="H105" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="26"/>
-      <c r="B106" s="15">
-        <f t="shared" si="2"/>
-        <v>718</v>
-      </c>
-      <c r="C106" s="29"/>
-      <c r="D106" s="27"/>
-      <c r="E106" s="23"/>
-      <c r="F106" s="24"/>
-      <c r="G106" s="25"/>
-      <c r="H106" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="26"/>
-      <c r="B107" s="15">
-        <f t="shared" si="2"/>
-        <v>719</v>
-      </c>
-      <c r="C107" s="29"/>
-      <c r="D107" s="27"/>
-      <c r="E107" s="23"/>
-      <c r="F107" s="24"/>
-      <c r="G107" s="25"/>
-      <c r="H107" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="26"/>
-      <c r="B108" s="15">
-        <f t="shared" si="2"/>
-        <v>720</v>
-      </c>
-      <c r="C108" s="29"/>
-      <c r="D108" s="27"/>
-      <c r="E108" s="23"/>
-      <c r="F108" s="24"/>
-      <c r="G108" s="25"/>
-      <c r="H108" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="26"/>
-      <c r="B109" s="15">
-        <f t="shared" si="2"/>
-        <v>721</v>
-      </c>
-      <c r="C109" s="29"/>
-      <c r="D109" s="27"/>
-      <c r="E109" s="23"/>
-      <c r="F109" s="24"/>
-      <c r="G109" s="25"/>
-      <c r="H109" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="26"/>
-      <c r="B110" s="15">
-        <f t="shared" si="2"/>
-        <v>722</v>
-      </c>
-      <c r="C110" s="29"/>
-      <c r="D110" s="27"/>
-      <c r="E110" s="23"/>
-      <c r="F110" s="24"/>
-      <c r="G110" s="25"/>
-      <c r="H110" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I102" s="2"/>
+    </row>
+    <row r="103" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="43"/>
+      <c r="C103" s="44"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="45">
+        <f>SUM(E4:E102)</f>
+        <v>620530</v>
+      </c>
+      <c r="F103" s="45"/>
+      <c r="G103" s="45">
+        <f>SUM(G4:G102)</f>
+        <v>565004</v>
+      </c>
+      <c r="H103" s="78">
+        <f>SUM(H4:H102)</f>
+        <v>55526</v>
+      </c>
+      <c r="I103" s="2"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B104" s="43"/>
+      <c r="C104" s="44"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="47"/>
+      <c r="F104" s="48"/>
+      <c r="G104" s="49"/>
+      <c r="H104" s="79"/>
+      <c r="I104" s="2"/>
+    </row>
+    <row r="105" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B105" s="43"/>
+      <c r="C105" s="44"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F105" s="48"/>
+      <c r="G105" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="H105" s="79"/>
+      <c r="I105" s="2"/>
+    </row>
+    <row r="106" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="43"/>
+      <c r="C106" s="44"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="51"/>
+      <c r="F106" s="48"/>
+      <c r="G106" s="52"/>
+      <c r="H106" s="79"/>
+      <c r="I106" s="2"/>
+    </row>
+    <row r="107" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B107" s="43"/>
+      <c r="C107" s="44"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="84">
+        <f>E103-G103</f>
+        <v>55526</v>
+      </c>
+      <c r="F107" s="85"/>
+      <c r="G107" s="86"/>
+      <c r="I107" s="2"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B108" s="43"/>
+      <c r="C108" s="44"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="47"/>
+      <c r="F108" s="48"/>
+      <c r="G108" s="49"/>
+      <c r="I108" s="2"/>
+    </row>
+    <row r="109" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B109" s="43"/>
+      <c r="C109" s="44"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="87" t="s">
+        <v>12</v>
+      </c>
+      <c r="F109" s="87"/>
+      <c r="G109" s="87"/>
+      <c r="I109" s="2"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B110" s="43"/>
+      <c r="C110" s="44"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="47"/>
+      <c r="F110" s="48"/>
+      <c r="G110" s="49"/>
+      <c r="I110" s="2"/>
+    </row>
+    <row r="111" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A111" s="26"/>
-      <c r="B111" s="15">
-        <f t="shared" si="2"/>
-        <v>723</v>
-      </c>
+      <c r="B111" s="15"/>
       <c r="C111" s="29"/>
-      <c r="D111" s="27"/>
-      <c r="E111" s="23"/>
-      <c r="F111" s="24"/>
-      <c r="G111" s="25"/>
-      <c r="H111" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="26"/>
-      <c r="B112" s="15">
-        <f t="shared" si="2"/>
-        <v>724</v>
-      </c>
-      <c r="C112" s="29"/>
-      <c r="D112" s="27"/>
-      <c r="E112" s="23"/>
-      <c r="F112" s="24"/>
-      <c r="G112" s="25"/>
-      <c r="H112" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="26"/>
-      <c r="B113" s="15">
-        <f t="shared" si="2"/>
-        <v>725</v>
-      </c>
-      <c r="C113" s="29"/>
-      <c r="D113" s="27"/>
-      <c r="E113" s="23"/>
-      <c r="F113" s="24"/>
-      <c r="G113" s="25"/>
-      <c r="H113" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="26"/>
-      <c r="B114" s="15">
-        <f t="shared" si="2"/>
-        <v>726</v>
-      </c>
-      <c r="C114" s="29"/>
-      <c r="D114" s="27"/>
-      <c r="E114" s="23"/>
-      <c r="F114" s="24"/>
-      <c r="G114" s="25"/>
-      <c r="H114" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="26"/>
-      <c r="B115" s="15">
-        <f t="shared" si="2"/>
-        <v>727</v>
-      </c>
-      <c r="C115" s="29"/>
-      <c r="D115" s="27"/>
-      <c r="E115" s="23"/>
-      <c r="F115" s="24"/>
-      <c r="G115" s="25"/>
-      <c r="H115" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="26"/>
-      <c r="B116" s="15">
-        <f t="shared" si="2"/>
-        <v>728</v>
-      </c>
-      <c r="C116" s="29"/>
-      <c r="D116" s="27"/>
-      <c r="E116" s="23"/>
-      <c r="F116" s="24"/>
-      <c r="G116" s="25"/>
-      <c r="H116" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="26"/>
-      <c r="B117" s="15">
-        <f t="shared" si="2"/>
-        <v>729</v>
-      </c>
-      <c r="C117" s="29"/>
-      <c r="D117" s="27"/>
-      <c r="E117" s="23"/>
-      <c r="F117" s="24"/>
-      <c r="G117" s="25"/>
-      <c r="H117" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="26"/>
-      <c r="B118" s="15">
-        <f t="shared" si="2"/>
-        <v>730</v>
-      </c>
-      <c r="C118" s="29"/>
-      <c r="D118" s="27"/>
-      <c r="E118" s="23"/>
-      <c r="F118" s="24"/>
-      <c r="G118" s="25"/>
-      <c r="H118" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="26"/>
-      <c r="B119" s="15">
-        <f t="shared" si="2"/>
-        <v>731</v>
-      </c>
-      <c r="C119" s="29"/>
-      <c r="D119" s="27"/>
-      <c r="E119" s="23"/>
-      <c r="F119" s="24"/>
-      <c r="G119" s="25"/>
-      <c r="H119" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="26"/>
-      <c r="B120" s="15">
-        <f t="shared" si="2"/>
-        <v>732</v>
-      </c>
-      <c r="C120" s="29"/>
-      <c r="D120" s="27"/>
-      <c r="E120" s="23"/>
-      <c r="F120" s="64"/>
-      <c r="G120" s="25"/>
-      <c r="H120" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="26"/>
-      <c r="B121" s="15">
-        <f t="shared" si="2"/>
-        <v>733</v>
-      </c>
-      <c r="C121" s="29"/>
-      <c r="D121" s="27"/>
-      <c r="E121" s="23"/>
-      <c r="F121" s="24"/>
-      <c r="G121" s="25"/>
-      <c r="H121" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="26"/>
-      <c r="B122" s="15">
-        <f t="shared" si="2"/>
-        <v>734</v>
-      </c>
-      <c r="C122" s="29"/>
-      <c r="D122" s="27"/>
-      <c r="E122" s="23"/>
-      <c r="F122" s="24"/>
-      <c r="G122" s="25"/>
-      <c r="H122" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="26"/>
-      <c r="B123" s="15">
-        <f t="shared" si="2"/>
-        <v>735</v>
-      </c>
-      <c r="C123" s="29"/>
-      <c r="D123" s="27"/>
-      <c r="E123" s="23"/>
-      <c r="F123" s="24"/>
-      <c r="G123" s="25"/>
-      <c r="H123" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="26"/>
-      <c r="B124" s="15">
-        <f t="shared" si="2"/>
-        <v>736</v>
-      </c>
-      <c r="C124" s="29"/>
-      <c r="D124" s="27"/>
-      <c r="E124" s="23"/>
-      <c r="F124" s="24"/>
-      <c r="G124" s="25"/>
-      <c r="H124" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="26"/>
-      <c r="B125" s="15">
-        <f t="shared" si="2"/>
-        <v>737</v>
-      </c>
-      <c r="C125" s="29"/>
-      <c r="D125" s="27"/>
-      <c r="E125" s="23"/>
-      <c r="F125" s="24"/>
-      <c r="G125" s="25"/>
-      <c r="H125" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="26"/>
-      <c r="B126" s="15">
-        <f t="shared" si="2"/>
-        <v>738</v>
-      </c>
-      <c r="C126" s="29"/>
-      <c r="D126" s="27"/>
-      <c r="E126" s="23"/>
-      <c r="F126" s="24"/>
-      <c r="G126" s="25"/>
-      <c r="H126" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="26"/>
-      <c r="B127" s="15">
-        <f t="shared" si="2"/>
-        <v>739</v>
-      </c>
-      <c r="C127" s="29"/>
-      <c r="D127" s="27"/>
-      <c r="E127" s="23"/>
-      <c r="F127" s="24"/>
-      <c r="G127" s="25"/>
-      <c r="H127" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="26"/>
-      <c r="B128" s="15">
-        <f t="shared" si="2"/>
-        <v>740</v>
-      </c>
-      <c r="C128" s="29"/>
-      <c r="D128" s="27"/>
-      <c r="E128" s="23"/>
-      <c r="F128" s="24"/>
-      <c r="G128" s="25"/>
-      <c r="H128" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="26"/>
-      <c r="B129" s="15">
-        <f t="shared" si="2"/>
-        <v>741</v>
-      </c>
-      <c r="C129" s="29"/>
-      <c r="D129" s="27"/>
-      <c r="E129" s="23"/>
-      <c r="F129" s="24"/>
-      <c r="G129" s="25"/>
-      <c r="H129" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="26"/>
-      <c r="B130" s="15">
-        <f t="shared" si="2"/>
-        <v>742</v>
-      </c>
-      <c r="C130" s="29"/>
-      <c r="D130" s="27"/>
-      <c r="E130" s="23"/>
-      <c r="F130" s="24"/>
-      <c r="G130" s="25"/>
-      <c r="H130" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="26"/>
-      <c r="B131" s="15">
-        <f t="shared" si="2"/>
-        <v>743</v>
-      </c>
-      <c r="C131" s="29"/>
-      <c r="D131" s="27"/>
-      <c r="E131" s="23"/>
-      <c r="F131" s="24"/>
-      <c r="G131" s="25"/>
-      <c r="H131" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="26"/>
-      <c r="B132" s="15">
-        <f t="shared" si="2"/>
-        <v>744</v>
-      </c>
-      <c r="C132" s="29"/>
-      <c r="D132" s="27"/>
-      <c r="E132" s="23"/>
-      <c r="F132" s="24"/>
-      <c r="G132" s="25"/>
-      <c r="H132" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="26"/>
-      <c r="B133" s="15">
-        <f t="shared" si="2"/>
-        <v>745</v>
-      </c>
-      <c r="C133" s="29"/>
-      <c r="D133" s="27"/>
-      <c r="E133" s="23"/>
-      <c r="F133" s="24"/>
-      <c r="G133" s="25"/>
-      <c r="H133" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="26"/>
-      <c r="B134" s="15">
-        <f t="shared" ref="B134:B138" si="3">B133+1</f>
-        <v>746</v>
-      </c>
-      <c r="C134" s="29"/>
-      <c r="D134" s="27"/>
-      <c r="E134" s="23"/>
-      <c r="F134" s="24"/>
-      <c r="G134" s="25"/>
-      <c r="H134" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="26"/>
-      <c r="B135" s="15">
-        <f t="shared" si="3"/>
-        <v>747</v>
-      </c>
-      <c r="C135" s="29"/>
-      <c r="D135" s="27"/>
-      <c r="E135" s="23"/>
-      <c r="F135" s="24"/>
-      <c r="G135" s="25"/>
-      <c r="H135" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="26"/>
-      <c r="B136" s="15">
-        <f t="shared" si="3"/>
-        <v>748</v>
-      </c>
-      <c r="C136" s="29"/>
-      <c r="D136" s="27"/>
-      <c r="E136" s="23"/>
-      <c r="F136" s="24"/>
-      <c r="G136" s="25"/>
-      <c r="H136" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="26"/>
-      <c r="B137" s="15">
-        <f t="shared" si="3"/>
-        <v>749</v>
-      </c>
-      <c r="C137" s="29"/>
-      <c r="D137" s="27"/>
-      <c r="E137" s="23"/>
-      <c r="F137" s="24"/>
-      <c r="G137" s="25"/>
-      <c r="H137" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="35"/>
-      <c r="B138" s="15">
-        <f t="shared" si="3"/>
-        <v>750</v>
-      </c>
-      <c r="C138" s="37"/>
-      <c r="D138" s="38"/>
-      <c r="E138" s="39">
-        <v>0</v>
-      </c>
-      <c r="F138" s="40"/>
-      <c r="G138" s="41"/>
-      <c r="H138" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I138" s="2"/>
-    </row>
-    <row r="139" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="43"/>
-      <c r="C139" s="44"/>
-      <c r="D139" s="2"/>
-      <c r="E139" s="45">
-        <f>SUM(E4:E138)</f>
-        <v>483044</v>
-      </c>
-      <c r="F139" s="45"/>
-      <c r="G139" s="45">
-        <f>SUM(G4:G138)</f>
-        <v>441730</v>
-      </c>
-      <c r="H139" s="78">
-        <f>SUM(H4:H138)</f>
-        <v>41314</v>
-      </c>
-      <c r="I139" s="2"/>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B140" s="43"/>
-      <c r="C140" s="44"/>
-      <c r="D140" s="2"/>
-      <c r="E140" s="47"/>
-      <c r="F140" s="48"/>
-      <c r="G140" s="49"/>
-      <c r="H140" s="79"/>
-      <c r="I140" s="2"/>
-    </row>
-    <row r="141" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B141" s="43"/>
-      <c r="C141" s="44"/>
-      <c r="D141" s="2"/>
-      <c r="E141" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="F141" s="48"/>
-      <c r="G141" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="H141" s="79"/>
-      <c r="I141" s="2"/>
-    </row>
-    <row r="142" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="43"/>
-      <c r="C142" s="44"/>
-      <c r="D142" s="2"/>
-      <c r="E142" s="51"/>
-      <c r="F142" s="48"/>
-      <c r="G142" s="52"/>
-      <c r="H142" s="79"/>
-      <c r="I142" s="2"/>
-    </row>
-    <row r="143" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B143" s="43"/>
-      <c r="C143" s="44"/>
-      <c r="D143" s="2"/>
-      <c r="E143" s="85">
-        <f>E139-G139</f>
-        <v>41314</v>
-      </c>
-      <c r="F143" s="86"/>
-      <c r="G143" s="87"/>
-      <c r="I143" s="2"/>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B144" s="43"/>
-      <c r="C144" s="44"/>
-      <c r="D144" s="2"/>
-      <c r="E144" s="47"/>
-      <c r="F144" s="48"/>
-      <c r="G144" s="49"/>
-      <c r="I144" s="2"/>
-    </row>
-    <row r="145" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B145" s="43"/>
-      <c r="C145" s="44"/>
-      <c r="D145" s="2"/>
-      <c r="E145" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="F145" s="88"/>
-      <c r="G145" s="88"/>
-      <c r="I145" s="2"/>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B146" s="43"/>
-      <c r="C146" s="44"/>
-      <c r="D146" s="2"/>
-      <c r="E146" s="47"/>
-      <c r="F146" s="48"/>
-      <c r="G146" s="49"/>
-      <c r="I146" s="2"/>
-    </row>
-    <row r="147" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A147" s="26"/>
-      <c r="B147" s="15"/>
-      <c r="C147" s="29"/>
-      <c r="D147" s="53"/>
-      <c r="E147" s="54"/>
-      <c r="F147" s="55"/>
-      <c r="G147" s="54"/>
-      <c r="I147" s="2"/>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B148" s="43"/>
-      <c r="C148" s="44"/>
-      <c r="D148" s="2"/>
-      <c r="E148" s="47"/>
-      <c r="F148" s="48"/>
-      <c r="G148" s="49"/>
-      <c r="I148" s="2"/>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B149" s="43"/>
-      <c r="C149" s="44"/>
-      <c r="D149" s="2"/>
-      <c r="E149" s="47"/>
-      <c r="F149" s="48"/>
-      <c r="G149" s="49"/>
-      <c r="I149" s="2"/>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B150" s="43"/>
-      <c r="C150" s="44"/>
-      <c r="D150" s="2"/>
-      <c r="E150" s="47"/>
-      <c r="F150" s="48"/>
-      <c r="G150" s="49"/>
-      <c r="I150" s="2"/>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B151" s="43"/>
-      <c r="C151" s="44"/>
-      <c r="D151" s="2"/>
-      <c r="E151" s="47"/>
-      <c r="F151" s="48"/>
-      <c r="G151" s="49"/>
-      <c r="I151" s="2"/>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B152" s="43"/>
-      <c r="C152" s="44"/>
-      <c r="D152" s="2"/>
-      <c r="E152" s="47"/>
-      <c r="F152" s="48"/>
-      <c r="G152" s="49"/>
-      <c r="I152" s="2"/>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B153" s="43"/>
-      <c r="C153" s="44"/>
-      <c r="D153" s="2"/>
-      <c r="E153" s="47"/>
-      <c r="F153" s="48"/>
-      <c r="G153" s="49"/>
-      <c r="I153" s="2"/>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B154" s="43"/>
-      <c r="C154" s="44"/>
-      <c r="D154" s="2"/>
-      <c r="E154" s="47"/>
-      <c r="F154" s="48"/>
-      <c r="G154" s="49"/>
-      <c r="I154" s="2"/>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B155" s="43"/>
-      <c r="C155" s="44"/>
-      <c r="D155" s="2"/>
-      <c r="E155" s="47"/>
-      <c r="F155" s="48"/>
-      <c r="G155" s="49"/>
-      <c r="I155" s="2"/>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B156" s="43"/>
-      <c r="C156" s="44"/>
-      <c r="D156" s="2"/>
-      <c r="E156" s="47"/>
-      <c r="F156" s="48"/>
-      <c r="G156" s="49"/>
-      <c r="I156" s="2"/>
+      <c r="D111" s="53"/>
+      <c r="E111" s="54"/>
+      <c r="F111" s="55"/>
+      <c r="G111" s="54"/>
+      <c r="I111" s="2"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B112" s="43"/>
+      <c r="C112" s="44"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="47"/>
+      <c r="F112" s="48"/>
+      <c r="G112" s="49"/>
+      <c r="I112" s="2"/>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B113" s="43"/>
+      <c r="C113" s="44"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="47"/>
+      <c r="F113" s="48"/>
+      <c r="G113" s="49"/>
+      <c r="I113" s="2"/>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B114" s="43"/>
+      <c r="C114" s="44"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="47"/>
+      <c r="F114" s="48"/>
+      <c r="G114" s="49"/>
+      <c r="I114" s="2"/>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B115" s="43"/>
+      <c r="C115" s="44"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="47"/>
+      <c r="F115" s="48"/>
+      <c r="G115" s="49"/>
+      <c r="I115" s="2"/>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B116" s="43"/>
+      <c r="C116" s="44"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="47"/>
+      <c r="F116" s="48"/>
+      <c r="G116" s="49"/>
+      <c r="I116" s="2"/>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B117" s="43"/>
+      <c r="C117" s="44"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="47"/>
+      <c r="F117" s="48"/>
+      <c r="G117" s="49"/>
+      <c r="I117" s="2"/>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B118" s="43"/>
+      <c r="C118" s="44"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="47"/>
+      <c r="F118" s="48"/>
+      <c r="G118" s="49"/>
+      <c r="I118" s="2"/>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B119" s="43"/>
+      <c r="C119" s="44"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="47"/>
+      <c r="F119" s="48"/>
+      <c r="G119" s="49"/>
+      <c r="I119" s="2"/>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B120" s="43"/>
+      <c r="C120" s="44"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="47"/>
+      <c r="F120" s="48"/>
+      <c r="G120" s="49"/>
+      <c r="I120" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="E143:G143"/>
-    <mergeCell ref="E145:G145"/>
+    <mergeCell ref="E107:G107"/>
+    <mergeCell ref="E109:G109"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6576,25 +6236,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="83"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="82"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
+      <c r="B2" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -7619,12 +7279,12 @@
       <c r="B55" s="43"/>
       <c r="C55" s="44"/>
       <c r="D55" s="2"/>
-      <c r="E55" s="85">
+      <c r="E55" s="84">
         <f>E51-G51</f>
         <v>0</v>
       </c>
-      <c r="F55" s="86"/>
-      <c r="G55" s="87"/>
+      <c r="F55" s="85"/>
+      <c r="G55" s="86"/>
       <c r="I55" s="2"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -7640,11 +7300,11 @@
       <c r="B57" s="43"/>
       <c r="C57" s="44"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="88" t="s">
+      <c r="E57" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="F57" s="88"/>
-      <c r="G57" s="88"/>
+      <c r="F57" s="87"/>
+      <c r="G57" s="87"/>
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -7786,25 +7446,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="83"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="82"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
+      <c r="B2" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -8751,12 +8411,12 @@
       <c r="B52" s="43"/>
       <c r="C52" s="44"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="85">
+      <c r="E52" s="84">
         <f>E48-G48</f>
         <v>0</v>
       </c>
-      <c r="F52" s="86"/>
-      <c r="G52" s="87"/>
+      <c r="F52" s="85"/>
+      <c r="G52" s="86"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -8772,11 +8432,11 @@
       <c r="B54" s="43"/>
       <c r="C54" s="44"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="88" t="s">
+      <c r="E54" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="F54" s="88"/>
-      <c r="G54" s="88"/>
+      <c r="F54" s="87"/>
+      <c r="G54" s="87"/>
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -8918,25 +8578,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="83"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="82"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
+      <c r="B2" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -10252,12 +9912,12 @@
       <c r="B63" s="43"/>
       <c r="C63" s="44"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="85">
+      <c r="E63" s="84">
         <f>E59-G59</f>
         <v>0</v>
       </c>
-      <c r="F63" s="86"/>
-      <c r="G63" s="87"/>
+      <c r="F63" s="85"/>
+      <c r="G63" s="86"/>
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -10273,11 +9933,11 @@
       <c r="B65" s="43"/>
       <c r="C65" s="44"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="88" t="s">
+      <c r="E65" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="F65" s="88"/>
-      <c r="G65" s="88"/>
+      <c r="F65" s="87"/>
+      <c r="G65" s="87"/>
       <c r="I65" s="2"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -10419,25 +10079,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="83"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="82"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
+      <c r="B2" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -11771,12 +11431,12 @@
       <c r="B57" s="43"/>
       <c r="C57" s="44"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="85">
+      <c r="E57" s="84">
         <f>E53-G53</f>
         <v>0</v>
       </c>
-      <c r="F57" s="86"/>
-      <c r="G57" s="87"/>
+      <c r="F57" s="85"/>
+      <c r="G57" s="86"/>
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -11792,11 +11452,11 @@
       <c r="B59" s="43"/>
       <c r="C59" s="44"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="88" t="s">
+      <c r="E59" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="F59" s="88"/>
-      <c r="G59" s="88"/>
+      <c r="F59" s="87"/>
+      <c r="G59" s="87"/>
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -11939,25 +11599,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="83"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="82"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
+      <c r="B2" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -13750,12 +13410,12 @@
       <c r="B76" s="43"/>
       <c r="C76" s="44"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="85">
+      <c r="E76" s="84">
         <f>E72-G72</f>
         <v>0</v>
       </c>
-      <c r="F76" s="86"/>
-      <c r="G76" s="87"/>
+      <c r="F76" s="85"/>
+      <c r="G76" s="86"/>
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -13771,11 +13431,11 @@
       <c r="B78" s="43"/>
       <c r="C78" s="44"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="88" t="s">
+      <c r="E78" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="F78" s="88"/>
-      <c r="G78" s="88"/>
+      <c r="F78" s="87"/>
+      <c r="G78" s="87"/>
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -13917,25 +13577,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="83"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="82"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
+      <c r="B2" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -16055,12 +15715,12 @@
       <c r="B87" s="43"/>
       <c r="C87" s="44"/>
       <c r="D87" s="2"/>
-      <c r="E87" s="85">
+      <c r="E87" s="84">
         <f>E83-G83</f>
         <v>0</v>
       </c>
-      <c r="F87" s="86"/>
-      <c r="G87" s="87"/>
+      <c r="F87" s="85"/>
+      <c r="G87" s="86"/>
       <c r="I87" s="2"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -16076,11 +15736,11 @@
       <c r="B89" s="43"/>
       <c r="C89" s="44"/>
       <c r="D89" s="2"/>
-      <c r="E89" s="88" t="s">
+      <c r="E89" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="F89" s="88"/>
-      <c r="G89" s="88"/>
+      <c r="F89" s="87"/>
+      <c r="G89" s="87"/>
       <c r="I89" s="2"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -16226,25 +15886,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="83"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="82"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
+      <c r="B2" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -18669,12 +18329,12 @@
       <c r="B98" s="43"/>
       <c r="C98" s="44"/>
       <c r="D98" s="2"/>
-      <c r="E98" s="85">
+      <c r="E98" s="84">
         <f>E94-G94</f>
         <v>0</v>
       </c>
-      <c r="F98" s="86"/>
-      <c r="G98" s="87"/>
+      <c r="F98" s="85"/>
+      <c r="G98" s="86"/>
       <c r="I98" s="2"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -18690,11 +18350,11 @@
       <c r="B100" s="43"/>
       <c r="C100" s="44"/>
       <c r="D100" s="2"/>
-      <c r="E100" s="88" t="s">
+      <c r="E100" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="F100" s="88"/>
-      <c r="G100" s="88"/>
+      <c r="F100" s="87"/>
+      <c r="G100" s="87"/>
       <c r="I100" s="2"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -18837,25 +18497,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="83"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="82"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
+      <c r="B2" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -22427,12 +22087,12 @@
       <c r="B143" s="43"/>
       <c r="C143" s="44"/>
       <c r="D143" s="2"/>
-      <c r="E143" s="85">
+      <c r="E143" s="84">
         <f>E139-G139</f>
         <v>0</v>
       </c>
-      <c r="F143" s="86"/>
-      <c r="G143" s="87"/>
+      <c r="F143" s="85"/>
+      <c r="G143" s="86"/>
       <c r="I143" s="2"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
@@ -22448,11 +22108,11 @@
       <c r="B145" s="43"/>
       <c r="C145" s="44"/>
       <c r="D145" s="2"/>
-      <c r="E145" s="88" t="s">
+      <c r="E145" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="F145" s="88"/>
-      <c r="G145" s="88"/>
+      <c r="F145" s="87"/>
+      <c r="G145" s="87"/>
       <c r="I145" s="2"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
